--- a/database/blocks.xlsx
+++ b/database/blocks.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\repo\sja-plus\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4824E761-80DE-4A92-A34A-7D8150BDD287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C365B5F3-7608-49B8-B8FE-349AE002982E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$250</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="383">
   <si>
     <t>Type</t>
   </si>
@@ -49,18 +48,12 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Upd</t>
-  </si>
-  <si>
     <t>motion</t>
   </si>
   <si>
     <t>movesteps</t>
   </si>
   <si>
-    <t>scratch</t>
-  </si>
-  <si>
     <t>sentence</t>
   </si>
   <si>
@@ -1114,16 +1107,76 @@
     <t>menu_PLAYER</t>
   </si>
   <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>cmouth</t>
+  </si>
+  <si>
+    <t>loadvariable</t>
+  </si>
+  <si>
+    <t>2field</t>
+  </si>
+  <si>
+    <t>savevariable</t>
+  </si>
+  <si>
+    <t>loadlist</t>
+  </si>
+  <si>
+    <t>savelist</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>xmw</t>
+  </si>
+  <si>
+    <t>xiaoma</t>
+  </si>
+  <si>
+    <t>getXiaomaUserInfo</t>
+  </si>
+  <si>
+    <t>xiaomaPurchase</t>
+  </si>
+  <si>
+    <t>sccn</t>
+  </si>
+  <si>
+    <t>jituiTotal</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>bool 型积木，但没有 is 前缀</t>
+  </si>
+  <si>
+    <t>jituiTotalGT</t>
+  </si>
+  <si>
+    <t>sccnvip</t>
+  </si>
+  <si>
+    <t>getPlayerNickname</t>
+  </si>
+  <si>
+    <t>saveUserInfo</t>
+  </si>
+  <si>
+    <t>getUserList</t>
+  </si>
+  <si>
+    <t>menu_PER</t>
+  </si>
+  <si>
+    <t>jsonChange</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1219,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1448,18 +1504,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:G343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="21.58203125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.4140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1475,272 +1535,263 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1748,16 +1799,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1765,16 +1816,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1782,33 +1833,33 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1816,16 +1867,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1833,16 +1884,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1850,16 +1901,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1867,16 +1918,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1884,16 +1935,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1901,16 +1952,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1918,16 +1969,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1935,33 +1986,33 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1969,16 +2020,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1986,33 +2037,33 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2020,16 +2071,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2037,16 +2088,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2054,50 +2105,50 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2105,16 +2156,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2122,16 +2173,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2139,84 +2190,84 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2224,16 +2275,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2241,33 +2292,33 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="B46" t="s">
-        <v>60</v>
-      </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2275,16 +2326,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2292,50 +2343,50 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2343,16 +2394,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2360,16 +2411,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2377,16 +2428,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2394,16 +2445,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>360</v>
+      </c>
+      <c r="D55" t="s">
         <v>67</v>
-      </c>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2411,33 +2462,33 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>360</v>
+      </c>
+      <c r="D56" t="s">
         <v>67</v>
       </c>
-      <c r="B56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" t="s">
-        <v>69</v>
-      </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
+        <v>360</v>
+      </c>
+      <c r="D57" t="s">
         <v>67</v>
-      </c>
-      <c r="B57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" t="s">
-        <v>69</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2445,67 +2496,67 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>360</v>
+      </c>
+      <c r="D58" t="s">
         <v>67</v>
       </c>
-      <c r="B58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>69</v>
-      </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>360</v>
+      </c>
+      <c r="D59" t="s">
         <v>67</v>
       </c>
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" t="s">
-        <v>69</v>
-      </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>360</v>
+      </c>
+      <c r="D60" t="s">
         <v>67</v>
       </c>
-      <c r="B60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" t="s">
-        <v>69</v>
-      </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2513,16 +2564,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2530,16 +2581,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2547,84 +2598,84 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
         <v>77</v>
       </c>
-      <c r="B64" t="s">
-        <v>79</v>
-      </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="E65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="E67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2632,50 +2683,50 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2683,16 +2734,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2700,33 +2751,33 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2734,16 +2785,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" t="s">
+        <v>360</v>
+      </c>
+      <c r="D75" t="s">
         <v>93</v>
-      </c>
-      <c r="B75" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" t="s">
-        <v>95</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2751,33 +2802,33 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" t="s">
+        <v>360</v>
+      </c>
+      <c r="D77" t="s">
         <v>93</v>
-      </c>
-      <c r="B77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" t="s">
-        <v>95</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2785,16 +2836,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" t="s">
+        <v>360</v>
+      </c>
+      <c r="D78" t="s">
         <v>93</v>
-      </c>
-      <c r="B78" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" t="s">
-        <v>95</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2802,16 +2853,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2819,33 +2870,33 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2853,16 +2904,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2870,16 +2921,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" t="s">
+        <v>360</v>
+      </c>
+      <c r="D83" t="s">
         <v>93</v>
-      </c>
-      <c r="B83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" t="s">
-        <v>95</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2887,33 +2938,33 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" t="s">
+        <v>360</v>
+      </c>
+      <c r="D85" t="s">
         <v>93</v>
-      </c>
-      <c r="B85" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s">
-        <v>95</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2921,16 +2972,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2938,16 +2989,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2955,33 +3006,33 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2989,16 +3040,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3006,16 +3057,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3023,67 +3074,67 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3091,16 +3142,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3108,16 +3159,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -3125,16 +3176,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="s">
         <v>117</v>
       </c>
-      <c r="B98" t="s">
-        <v>119</v>
-      </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -3142,16 +3193,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -3159,16 +3210,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -3176,16 +3227,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -3193,16 +3244,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -3210,16 +3261,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D103" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -3227,16 +3278,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D104" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -3244,16 +3295,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D105" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -3261,16 +3312,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D106" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -3278,16 +3329,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D107" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3295,16 +3346,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -3312,16 +3363,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -3329,16 +3380,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3346,16 +3397,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D111" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -3363,16 +3414,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -3380,16 +3431,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -3397,388 +3448,388 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>134</v>
+      </c>
+      <c r="B116" t="s">
         <v>136</v>
       </c>
-      <c r="B116" t="s">
-        <v>138</v>
-      </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" t="s">
+        <v>360</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>134</v>
+      </c>
+      <c r="B119" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" t="s">
+        <v>360</v>
+      </c>
+      <c r="D119" t="s">
         <v>140</v>
       </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>136</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="E119" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" t="s">
-        <v>142</v>
-      </c>
-      <c r="E119" t="s">
-        <v>141</v>
-      </c>
-      <c r="F119" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E123" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E124" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E125" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E126" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D128" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E128" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" t="s">
+        <v>360</v>
+      </c>
+      <c r="D131" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B131" t="s">
-        <v>157</v>
-      </c>
-      <c r="C131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" t="s">
-        <v>69</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" t="s">
+        <v>360</v>
+      </c>
+      <c r="D132" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" t="s">
         <v>159</v>
       </c>
-      <c r="C132" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="F132" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E132" t="s">
+    </row>
+    <row r="133" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>161</v>
       </c>
-      <c r="F132" t="s">
+      <c r="B133" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="C133" t="s">
+        <v>360</v>
+      </c>
+      <c r="D133" t="s">
+        <v>140</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B133" t="s">
-        <v>164</v>
-      </c>
-      <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" t="s">
-        <v>142</v>
-      </c>
-      <c r="E133" t="s">
-        <v>16</v>
-      </c>
-      <c r="F133" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
+        <v>164</v>
+      </c>
+      <c r="C134" t="s">
+        <v>360</v>
+      </c>
+      <c r="D134" t="s">
+        <v>165</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" t="s">
-        <v>167</v>
-      </c>
-      <c r="E134" t="s">
-        <v>16</v>
-      </c>
-      <c r="F134" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B135" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -3786,33 +3837,33 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>167</v>
+      </c>
+      <c r="B136" t="s">
         <v>169</v>
       </c>
-      <c r="B136" t="s">
-        <v>171</v>
-      </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B137" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -3820,16 +3871,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B138" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -3837,33 +3888,33 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B139" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B140" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -3871,33 +3922,33 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B141" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -3905,16 +3956,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B143" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -3922,16 +3973,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B144" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -3939,16 +3990,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B145" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -3956,16 +4007,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>178</v>
+      </c>
+      <c r="B146" t="s">
         <v>180</v>
       </c>
-      <c r="B146" t="s">
-        <v>182</v>
-      </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -3973,16 +4024,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B147" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -3990,16 +4041,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B148" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -4007,16 +4058,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B149" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -4024,16 +4075,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B150" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -4041,33 +4092,33 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B151" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B152" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E152">
         <v>2</v>
@@ -4075,16 +4126,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B153" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -4092,16 +4143,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B154" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -4109,16 +4160,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D155" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -4126,16 +4177,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>189</v>
+      </c>
+      <c r="B156" t="s">
         <v>191</v>
       </c>
-      <c r="B156" t="s">
-        <v>193</v>
-      </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E156">
         <v>2</v>
@@ -4143,50 +4194,50 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B157" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B158" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -4194,33 +4245,33 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B161" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -4228,16 +4279,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B162" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -4245,16 +4296,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>197</v>
+      </c>
+      <c r="B163" t="s">
         <v>199</v>
       </c>
-      <c r="B163" t="s">
-        <v>201</v>
-      </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -4262,33 +4313,33 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B164" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B165" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -4296,33 +4347,33 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B166" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B167" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -4330,36 +4381,36 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>203</v>
+      </c>
+      <c r="B168" t="s">
+        <v>202</v>
+      </c>
+      <c r="C168" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B168" t="s">
-        <v>204</v>
-      </c>
-      <c r="C168" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" t="s">
-        <v>31</v>
-      </c>
-      <c r="E168" t="s">
-        <v>16</v>
-      </c>
-      <c r="F168" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D169" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -4367,16 +4418,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B170" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D170" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -4384,33 +4435,33 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>207</v>
+      </c>
+      <c r="B171" t="s">
         <v>209</v>
       </c>
-      <c r="B171" t="s">
-        <v>211</v>
-      </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B172" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D172" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -4418,33 +4469,33 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B173" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B174" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D174" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -4452,33 +4503,33 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>212</v>
+      </c>
+      <c r="B175" t="s">
         <v>214</v>
       </c>
-      <c r="B175" t="s">
-        <v>216</v>
-      </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D176" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -4486,16 +4537,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B177" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D177" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -4503,64 +4554,64 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B178" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D178" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B179" t="s">
+        <v>218</v>
+      </c>
+      <c r="C179" t="s">
+        <v>360</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>219</v>
+      </c>
+      <c r="C180" t="s">
+        <v>360</v>
+      </c>
+      <c r="D180" t="s">
         <v>220</v>
       </c>
-      <c r="C179" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" t="s">
-        <v>10</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B180" t="s">
+      <c r="E180" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C180" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" t="s">
-        <v>222</v>
-      </c>
-      <c r="E180" t="s">
-        <v>16</v>
-      </c>
-      <c r="F180" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B181" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -4568,16 +4619,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B182" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -4585,16 +4636,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B183" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D183" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -4602,33 +4653,33 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B184" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D184" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E184" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B185" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D185" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -4636,16 +4687,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B186" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D186" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -4653,33 +4704,33 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B187" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D187" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E187" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B188" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D188" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -4687,33 +4738,33 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B189" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B190" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E190">
         <v>2</v>
@@ -4721,33 +4772,33 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>231</v>
+      </c>
+      <c r="B191" t="s">
         <v>233</v>
       </c>
-      <c r="B191" t="s">
-        <v>235</v>
-      </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D191" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B192" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -4755,16 +4806,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B193" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E193">
         <v>2</v>
@@ -4772,16 +4823,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B194" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D194" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -4789,16 +4840,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B195" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D195" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -4806,33 +4857,33 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B196" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D196" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E196" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B197" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D197" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -4840,16 +4891,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B198" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D198" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -4857,16 +4908,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B199" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D199" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -4874,16 +4925,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B200" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D200" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -4891,16 +4942,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B201" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D201" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -4908,16 +4959,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B202" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -4925,33 +4976,33 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D203" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E203" t="s">
-        <v>16</v>
-      </c>
-      <c r="F203" t="s">
-        <v>246</v>
+        <v>14</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B204" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E204">
         <v>2</v>
@@ -4959,33 +5010,33 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>245</v>
+      </c>
+      <c r="B205" t="s">
         <v>247</v>
       </c>
-      <c r="B205" t="s">
-        <v>249</v>
-      </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D205" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E205" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B206" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E206">
         <v>2</v>
@@ -4993,16 +5044,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B207" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -5010,16 +5061,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B208" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -5027,16 +5078,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B209" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -5044,16 +5095,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B210" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E210">
         <v>2</v>
@@ -5061,33 +5112,33 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B211" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D211" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E211" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B212" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D212" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -5095,33 +5146,33 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B213" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D213" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E213" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B214" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D214" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -5129,33 +5180,33 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B215" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D215" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E215" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B216" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D216" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -5163,16 +5214,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B217" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D217" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -5180,33 +5231,33 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B218" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E218" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B219" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D219" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -5214,33 +5265,33 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B220" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D220" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E220" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B221" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -5248,16 +5299,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B222" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E222">
         <v>2</v>
@@ -5265,33 +5316,33 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B223" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D223" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E223" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B224" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -5299,16 +5350,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B225" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -5316,16 +5367,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B226" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E226">
         <v>2</v>
@@ -5333,16 +5384,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B227" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E227">
         <v>2</v>
@@ -5350,33 +5401,33 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B228" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D228" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E228" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B229" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -5384,16 +5435,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>261</v>
+      </c>
+      <c r="B230" t="s">
         <v>263</v>
       </c>
-      <c r="B230" t="s">
-        <v>265</v>
-      </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D230" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E230">
         <v>2</v>
@@ -5401,33 +5452,33 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B231" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D231" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E231" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B232" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D232" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -5435,33 +5486,33 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B233" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E233" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B234" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D234" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -5469,16 +5520,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B235" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D235" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -5486,16 +5537,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B236" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D236" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -5503,33 +5554,33 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B237" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D237" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E237" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B238" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D238" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -5537,33 +5588,33 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B239" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D239" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E239" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>265</v>
+      </c>
+      <c r="B240" t="s">
         <v>267</v>
       </c>
-      <c r="B240" t="s">
-        <v>269</v>
-      </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D240" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -5571,33 +5622,33 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B241" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D241" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E241" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D242" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -5605,16 +5656,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B243" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D243" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -5622,33 +5673,33 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B244" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D244" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E244" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B245" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D245" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -5656,16 +5707,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B246" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D246" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -5673,33 +5724,33 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B247" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D247" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E247" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B248" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D248" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -5707,16 +5758,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B249" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D249" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -5724,1384 +5775,1629 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B250" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C250" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E250" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B251" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="D251" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E251">
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <autoFilter ref="A1:G251" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C69629-CB44-48BF-A0AC-9D8C6C28C470}">
-  <dimension ref="A1:F77"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>178</v>
+      </c>
+      <c r="B252" t="s">
+        <v>277</v>
+      </c>
+      <c r="C252" t="s">
+        <v>278</v>
+      </c>
+      <c r="D252" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>178</v>
+      </c>
+      <c r="B253" t="s">
         <v>279</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C253" t="s">
+        <v>278</v>
+      </c>
+      <c r="D253" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>280</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B254" t="s">
         <v>281</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C254" t="s">
+        <v>278</v>
+      </c>
+      <c r="D254" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>280</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B255" t="s">
         <v>282</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C255" t="s">
+        <v>278</v>
+      </c>
+      <c r="D255" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>283</v>
       </c>
-      <c r="C3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B256" t="s">
         <v>284</v>
       </c>
-      <c r="C4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C256" t="s">
+        <v>278</v>
+      </c>
+      <c r="D256" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>283</v>
+      </c>
+      <c r="B257" t="s">
         <v>285</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C257" t="s">
+        <v>278</v>
+      </c>
+      <c r="D257" t="s">
+        <v>8</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>283</v>
+      </c>
+      <c r="B258" t="s">
         <v>286</v>
       </c>
-      <c r="C5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
+      <c r="C258" t="s">
+        <v>278</v>
+      </c>
+      <c r="D258" t="s">
+        <v>8</v>
+      </c>
+      <c r="E258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>283</v>
+      </c>
+      <c r="B259" t="s">
+        <v>287</v>
+      </c>
+      <c r="C259" t="s">
+        <v>278</v>
+      </c>
+      <c r="D259" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>283</v>
+      </c>
+      <c r="B260" t="s">
+        <v>288</v>
+      </c>
+      <c r="C260" t="s">
+        <v>278</v>
+      </c>
+      <c r="D260" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>283</v>
+      </c>
+      <c r="B261" t="s">
+        <v>289</v>
+      </c>
+      <c r="C261" t="s">
+        <v>278</v>
+      </c>
+      <c r="D261" t="s">
+        <v>8</v>
+      </c>
+      <c r="E261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>283</v>
+      </c>
+      <c r="B262" t="s">
+        <v>290</v>
+      </c>
+      <c r="C262" t="s">
+        <v>278</v>
+      </c>
+      <c r="D262" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>283</v>
+      </c>
+      <c r="B263" t="s">
+        <v>291</v>
+      </c>
+      <c r="C263" t="s">
+        <v>278</v>
+      </c>
+      <c r="D263" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>283</v>
+      </c>
+      <c r="B264" t="s">
+        <v>292</v>
+      </c>
+      <c r="C264" t="s">
+        <v>278</v>
+      </c>
+      <c r="D264" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>283</v>
+      </c>
+      <c r="B265" t="s">
+        <v>293</v>
+      </c>
+      <c r="C265" t="s">
+        <v>278</v>
+      </c>
+      <c r="D265" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>283</v>
+      </c>
+      <c r="B266" t="s">
+        <v>294</v>
+      </c>
+      <c r="C266" t="s">
+        <v>278</v>
+      </c>
+      <c r="D266" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>283</v>
+      </c>
+      <c r="B267" t="s">
+        <v>295</v>
+      </c>
+      <c r="C267" t="s">
+        <v>278</v>
+      </c>
+      <c r="D267" t="s">
+        <v>8</v>
+      </c>
+      <c r="E267">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>283</v>
+      </c>
+      <c r="B268" t="s">
+        <v>296</v>
+      </c>
+      <c r="C268" t="s">
+        <v>278</v>
+      </c>
+      <c r="D268" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>283</v>
+      </c>
+      <c r="B269" t="s">
+        <v>297</v>
+      </c>
+      <c r="C269" t="s">
+        <v>278</v>
+      </c>
+      <c r="D269" t="s">
+        <v>8</v>
+      </c>
+      <c r="E269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>283</v>
+      </c>
+      <c r="B270" t="s">
+        <v>298</v>
+      </c>
+      <c r="C270" t="s">
+        <v>278</v>
+      </c>
+      <c r="D270" t="s">
+        <v>8</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>283</v>
+      </c>
+      <c r="B271" t="s">
+        <v>299</v>
+      </c>
+      <c r="C271" t="s">
+        <v>278</v>
+      </c>
+      <c r="D271" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>283</v>
+      </c>
+      <c r="B272" t="s">
+        <v>300</v>
+      </c>
+      <c r="C272" t="s">
+        <v>278</v>
+      </c>
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>283</v>
+      </c>
+      <c r="B273" t="s">
+        <v>301</v>
+      </c>
+      <c r="C273" t="s">
+        <v>278</v>
+      </c>
+      <c r="D273" t="s">
+        <v>29</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>283</v>
+      </c>
+      <c r="B274" t="s">
+        <v>302</v>
+      </c>
+      <c r="C274" t="s">
+        <v>278</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>283</v>
+      </c>
+      <c r="B275" t="s">
+        <v>303</v>
+      </c>
+      <c r="C275" t="s">
+        <v>278</v>
+      </c>
+      <c r="D275" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>283</v>
+      </c>
+      <c r="B276" t="s">
+        <v>304</v>
+      </c>
+      <c r="C276" t="s">
+        <v>278</v>
+      </c>
+      <c r="D276" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>283</v>
+      </c>
+      <c r="B277" t="s">
+        <v>305</v>
+      </c>
+      <c r="C277" t="s">
+        <v>278</v>
+      </c>
+      <c r="D277" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>283</v>
+      </c>
+      <c r="B278" t="s">
+        <v>203</v>
+      </c>
+      <c r="C278" t="s">
+        <v>278</v>
+      </c>
+      <c r="D278" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>283</v>
+      </c>
+      <c r="B279" t="s">
+        <v>306</v>
+      </c>
+      <c r="C279" t="s">
+        <v>278</v>
+      </c>
+      <c r="D279" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280" t="s">
+        <v>307</v>
+      </c>
+      <c r="C280" t="s">
+        <v>278</v>
+      </c>
+      <c r="D280" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>285</v>
-      </c>
-      <c r="B16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281" t="s">
+        <v>308</v>
+      </c>
+      <c r="C281" t="s">
+        <v>278</v>
+      </c>
+      <c r="D281" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B17" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" t="s">
+        <v>309</v>
+      </c>
+      <c r="C282" t="s">
+        <v>278</v>
+      </c>
+      <c r="D282" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>285</v>
-      </c>
-      <c r="B18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>285</v>
-      </c>
-      <c r="B19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C19" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" t="s">
-        <v>302</v>
-      </c>
-      <c r="C21" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>285</v>
-      </c>
-      <c r="B22" t="s">
-        <v>303</v>
-      </c>
-      <c r="C22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>285</v>
-      </c>
-      <c r="B23" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" t="s">
-        <v>280</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>285</v>
-      </c>
-      <c r="B24" t="s">
-        <v>305</v>
-      </c>
-      <c r="C24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>285</v>
-      </c>
-      <c r="B25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C25" t="s">
-        <v>280</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" t="s">
+        <v>310</v>
+      </c>
+      <c r="C283" t="s">
+        <v>278</v>
+      </c>
+      <c r="D283" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>311</v>
+      </c>
+      <c r="C284" t="s">
+        <v>278</v>
+      </c>
+      <c r="D284" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>312</v>
+      </c>
+      <c r="C285" t="s">
+        <v>278</v>
+      </c>
+      <c r="D285" t="s">
+        <v>8</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>283</v>
+      </c>
+      <c r="B286" t="s">
+        <v>313</v>
+      </c>
+      <c r="C286" t="s">
+        <v>278</v>
+      </c>
+      <c r="D286" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>314</v>
+      </c>
+      <c r="B287" t="s">
+        <v>315</v>
+      </c>
+      <c r="C287" t="s">
+        <v>278</v>
+      </c>
+      <c r="D287" t="s">
+        <v>8</v>
+      </c>
+      <c r="E287">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>285</v>
-      </c>
-      <c r="B26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" t="s">
-        <v>280</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>314</v>
+      </c>
+      <c r="B288" t="s">
+        <v>316</v>
+      </c>
+      <c r="C288" t="s">
+        <v>278</v>
+      </c>
+      <c r="D288" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>314</v>
+      </c>
+      <c r="B289" t="s">
+        <v>317</v>
+      </c>
+      <c r="C289" t="s">
+        <v>278</v>
+      </c>
+      <c r="D289" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>314</v>
+      </c>
+      <c r="B290" t="s">
+        <v>318</v>
+      </c>
+      <c r="C290" t="s">
+        <v>278</v>
+      </c>
+      <c r="D290" t="s">
+        <v>29</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>314</v>
+      </c>
+      <c r="B291" t="s">
+        <v>319</v>
+      </c>
+      <c r="C291" t="s">
+        <v>278</v>
+      </c>
+      <c r="D291" t="s">
+        <v>29</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>314</v>
+      </c>
+      <c r="B292" t="s">
+        <v>320</v>
+      </c>
+      <c r="C292" t="s">
+        <v>278</v>
+      </c>
+      <c r="D292" t="s">
+        <v>29</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>321</v>
+      </c>
+      <c r="B293" t="s">
+        <v>322</v>
+      </c>
+      <c r="C293" t="s">
+        <v>278</v>
+      </c>
+      <c r="D293" t="s">
+        <v>29</v>
+      </c>
+      <c r="E293">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>285</v>
-      </c>
-      <c r="B28" t="s">
-        <v>308</v>
-      </c>
-      <c r="C28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>285</v>
-      </c>
-      <c r="B29" t="s">
-        <v>309</v>
-      </c>
-      <c r="C29" t="s">
-        <v>280</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>321</v>
+      </c>
+      <c r="B294" t="s">
+        <v>323</v>
+      </c>
+      <c r="C294" t="s">
+        <v>278</v>
+      </c>
+      <c r="D294" t="s">
+        <v>29</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>321</v>
+      </c>
+      <c r="B295" t="s">
+        <v>324</v>
+      </c>
+      <c r="C295" t="s">
+        <v>278</v>
+      </c>
+      <c r="D295" t="s">
+        <v>29</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>321</v>
+      </c>
+      <c r="B296" t="s">
+        <v>325</v>
+      </c>
+      <c r="C296" t="s">
+        <v>278</v>
+      </c>
+      <c r="D296" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>321</v>
+      </c>
+      <c r="B297" t="s">
+        <v>326</v>
+      </c>
+      <c r="C297" t="s">
+        <v>278</v>
+      </c>
+      <c r="D297" t="s">
+        <v>8</v>
+      </c>
+      <c r="E297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>321</v>
+      </c>
+      <c r="B298" t="s">
+        <v>327</v>
+      </c>
+      <c r="C298" t="s">
+        <v>278</v>
+      </c>
+      <c r="D298" t="s">
+        <v>13</v>
+      </c>
+      <c r="E298" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>321</v>
+      </c>
+      <c r="B299" t="s">
+        <v>328</v>
+      </c>
+      <c r="C299" t="s">
+        <v>278</v>
+      </c>
+      <c r="D299" t="s">
+        <v>29</v>
+      </c>
+      <c r="E299">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>285</v>
-      </c>
-      <c r="B30" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" t="s">
-        <v>280</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>329</v>
+      </c>
+      <c r="B300" t="s">
+        <v>324</v>
+      </c>
+      <c r="C300" t="s">
+        <v>278</v>
+      </c>
+      <c r="D300" t="s">
+        <v>29</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>329</v>
+      </c>
+      <c r="B301" t="s">
+        <v>325</v>
+      </c>
+      <c r="C301" t="s">
+        <v>278</v>
+      </c>
+      <c r="D301" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>329</v>
+      </c>
+      <c r="B302" t="s">
+        <v>326</v>
+      </c>
+      <c r="C302" t="s">
+        <v>278</v>
+      </c>
+      <c r="D302" t="s">
+        <v>8</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>329</v>
+      </c>
+      <c r="B303" t="s">
+        <v>327</v>
+      </c>
+      <c r="C303" t="s">
+        <v>278</v>
+      </c>
+      <c r="D303" t="s">
+        <v>13</v>
+      </c>
+      <c r="E303" t="s">
+        <v>14</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>329</v>
+      </c>
+      <c r="B304" t="s">
+        <v>328</v>
+      </c>
+      <c r="C304" t="s">
+        <v>278</v>
+      </c>
+      <c r="D304" t="s">
+        <v>29</v>
+      </c>
+      <c r="E304">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" t="s">
-        <v>311</v>
-      </c>
-      <c r="C31" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31">
+      <c r="F304" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>329</v>
+      </c>
+      <c r="B305" t="s">
+        <v>332</v>
+      </c>
+      <c r="C305" t="s">
+        <v>278</v>
+      </c>
+      <c r="D305" t="s">
+        <v>29</v>
+      </c>
+      <c r="E305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>333</v>
+      </c>
+      <c r="B306" t="s">
+        <v>334</v>
+      </c>
+      <c r="C306" t="s">
+        <v>278</v>
+      </c>
+      <c r="D306" t="s">
+        <v>29</v>
+      </c>
+      <c r="E306" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>333</v>
+      </c>
+      <c r="B307" t="s">
+        <v>335</v>
+      </c>
+      <c r="C307" t="s">
+        <v>278</v>
+      </c>
+      <c r="D307" t="s">
+        <v>93</v>
+      </c>
+      <c r="E307">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>285</v>
-      </c>
-      <c r="B32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" t="s">
-        <v>280</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>285</v>
-      </c>
-      <c r="B33" t="s">
-        <v>313</v>
-      </c>
-      <c r="C33" t="s">
-        <v>280</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B34" t="s">
-        <v>314</v>
-      </c>
-      <c r="C34" t="s">
-        <v>280</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>285</v>
-      </c>
-      <c r="B35" t="s">
-        <v>315</v>
-      </c>
-      <c r="C35" t="s">
-        <v>280</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>333</v>
+      </c>
+      <c r="B308" t="s">
+        <v>336</v>
+      </c>
+      <c r="C308" t="s">
+        <v>278</v>
+      </c>
+      <c r="D308" t="s">
+        <v>93</v>
+      </c>
+      <c r="E308">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>316</v>
-      </c>
-      <c r="B36" t="s">
-        <v>317</v>
-      </c>
-      <c r="C36" t="s">
-        <v>280</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>333</v>
+      </c>
+      <c r="B309" t="s">
+        <v>337</v>
+      </c>
+      <c r="C309" t="s">
+        <v>278</v>
+      </c>
+      <c r="D309" t="s">
+        <v>8</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>333</v>
+      </c>
+      <c r="B310" t="s">
+        <v>338</v>
+      </c>
+      <c r="C310" t="s">
+        <v>278</v>
+      </c>
+      <c r="D310" t="s">
+        <v>8</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>333</v>
+      </c>
+      <c r="B311" t="s">
+        <v>339</v>
+      </c>
+      <c r="C311" t="s">
+        <v>278</v>
+      </c>
+      <c r="D311" t="s">
+        <v>8</v>
+      </c>
+      <c r="E311">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>316</v>
-      </c>
-      <c r="B37" t="s">
-        <v>318</v>
-      </c>
-      <c r="C37" t="s">
-        <v>280</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>316</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>333</v>
+      </c>
+      <c r="B312" t="s">
         <v>319</v>
       </c>
-      <c r="C38" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38">
+      <c r="C312" t="s">
+        <v>278</v>
+      </c>
+      <c r="D312" t="s">
+        <v>29</v>
+      </c>
+      <c r="E312">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>316</v>
-      </c>
-      <c r="B39" t="s">
-        <v>320</v>
-      </c>
-      <c r="C39" t="s">
-        <v>280</v>
-      </c>
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>340</v>
+      </c>
+      <c r="B313" t="s">
+        <v>341</v>
+      </c>
+      <c r="C313" t="s">
+        <v>278</v>
+      </c>
+      <c r="D313" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>316</v>
-      </c>
-      <c r="B40" t="s">
-        <v>321</v>
-      </c>
-      <c r="C40" t="s">
-        <v>280</v>
-      </c>
-      <c r="D40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>340</v>
+      </c>
+      <c r="B314" t="s">
+        <v>342</v>
+      </c>
+      <c r="C314" t="s">
+        <v>278</v>
+      </c>
+      <c r="D314" t="s">
+        <v>8</v>
+      </c>
+      <c r="E314">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>316</v>
-      </c>
-      <c r="B41" t="s">
-        <v>322</v>
-      </c>
-      <c r="C41" t="s">
-        <v>280</v>
-      </c>
-      <c r="D41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>340</v>
+      </c>
+      <c r="B315" t="s">
+        <v>343</v>
+      </c>
+      <c r="C315" t="s">
+        <v>278</v>
+      </c>
+      <c r="D315" t="s">
+        <v>8</v>
+      </c>
+      <c r="E315">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>323</v>
-      </c>
-      <c r="B42" t="s">
-        <v>324</v>
-      </c>
-      <c r="C42" t="s">
-        <v>280</v>
-      </c>
-      <c r="D42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>340</v>
+      </c>
+      <c r="B316" t="s">
+        <v>344</v>
+      </c>
+      <c r="C316" t="s">
+        <v>278</v>
+      </c>
+      <c r="D316" t="s">
+        <v>93</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>340</v>
+      </c>
+      <c r="B317" t="s">
+        <v>345</v>
+      </c>
+      <c r="C317" t="s">
+        <v>278</v>
+      </c>
+      <c r="D317" t="s">
+        <v>29</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>340</v>
+      </c>
+      <c r="B318" t="s">
+        <v>346</v>
+      </c>
+      <c r="C318" t="s">
+        <v>278</v>
+      </c>
+      <c r="D318" t="s">
+        <v>29</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>340</v>
+      </c>
+      <c r="B319" t="s">
+        <v>347</v>
+      </c>
+      <c r="C319" t="s">
+        <v>278</v>
+      </c>
+      <c r="D319" t="s">
+        <v>8</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>340</v>
+      </c>
+      <c r="B320" t="s">
+        <v>348</v>
+      </c>
+      <c r="C320" t="s">
+        <v>278</v>
+      </c>
+      <c r="D320" t="s">
+        <v>8</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>340</v>
+      </c>
+      <c r="B321" t="s">
+        <v>349</v>
+      </c>
+      <c r="C321" t="s">
+        <v>278</v>
+      </c>
+      <c r="D321" t="s">
+        <v>8</v>
+      </c>
+      <c r="E321" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>340</v>
+      </c>
+      <c r="B322" t="s">
+        <v>350</v>
+      </c>
+      <c r="C322" t="s">
+        <v>278</v>
+      </c>
+      <c r="D322" t="s">
+        <v>8</v>
+      </c>
+      <c r="E322" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>340</v>
+      </c>
+      <c r="B323" t="s">
+        <v>351</v>
+      </c>
+      <c r="C323" t="s">
+        <v>278</v>
+      </c>
+      <c r="D323" t="s">
+        <v>29</v>
+      </c>
+      <c r="E323" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>340</v>
+      </c>
+      <c r="B324" t="s">
+        <v>352</v>
+      </c>
+      <c r="C324" t="s">
+        <v>278</v>
+      </c>
+      <c r="D324" t="s">
+        <v>8</v>
+      </c>
+      <c r="E324" t="s">
+        <v>46</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>340</v>
+      </c>
+      <c r="B325" t="s">
+        <v>354</v>
+      </c>
+      <c r="C325" t="s">
+        <v>278</v>
+      </c>
+      <c r="D325" t="s">
+        <v>8</v>
+      </c>
+      <c r="E325" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>355</v>
+      </c>
+      <c r="B326" t="s">
+        <v>356</v>
+      </c>
+      <c r="C326" t="s">
+        <v>278</v>
+      </c>
+      <c r="D326" t="s">
+        <v>29</v>
+      </c>
+      <c r="E326">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>323</v>
-      </c>
-      <c r="B43" t="s">
-        <v>325</v>
-      </c>
-      <c r="C43" t="s">
-        <v>280</v>
-      </c>
-      <c r="D43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>323</v>
-      </c>
-      <c r="B44" t="s">
-        <v>326</v>
-      </c>
-      <c r="C44" t="s">
-        <v>280</v>
-      </c>
-      <c r="D44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>323</v>
-      </c>
-      <c r="B45" t="s">
-        <v>327</v>
-      </c>
-      <c r="C45" t="s">
-        <v>280</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>355</v>
+      </c>
+      <c r="B327" t="s">
+        <v>357</v>
+      </c>
+      <c r="C327" t="s">
+        <v>278</v>
+      </c>
+      <c r="D327" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>355</v>
+      </c>
+      <c r="B328" t="s">
+        <v>358</v>
+      </c>
+      <c r="C328" t="s">
+        <v>278</v>
+      </c>
+      <c r="D328" t="s">
+        <v>13</v>
+      </c>
+      <c r="E328" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>134</v>
+      </c>
+      <c r="B329" t="s">
+        <v>362</v>
+      </c>
+      <c r="C329" t="s">
+        <v>278</v>
+      </c>
+      <c r="D329" t="s">
+        <v>8</v>
+      </c>
+      <c r="E329" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>134</v>
+      </c>
+      <c r="B330" t="s">
+        <v>364</v>
+      </c>
+      <c r="C330" t="s">
+        <v>278</v>
+      </c>
+      <c r="D330" t="s">
+        <v>8</v>
+      </c>
+      <c r="E330" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>134</v>
+      </c>
+      <c r="B331" t="s">
+        <v>365</v>
+      </c>
+      <c r="C331" t="s">
+        <v>278</v>
+      </c>
+      <c r="D331" t="s">
+        <v>8</v>
+      </c>
+      <c r="E331" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>134</v>
+      </c>
+      <c r="B332" t="s">
+        <v>366</v>
+      </c>
+      <c r="C332" t="s">
+        <v>278</v>
+      </c>
+      <c r="D332" t="s">
+        <v>8</v>
+      </c>
+      <c r="E332" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>91</v>
+      </c>
+      <c r="B333" t="s">
+        <v>367</v>
+      </c>
+      <c r="C333" t="s">
+        <v>368</v>
+      </c>
+      <c r="D333" t="s">
+        <v>29</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>369</v>
+      </c>
+      <c r="B334" t="s">
+        <v>370</v>
+      </c>
+      <c r="C334" t="s">
+        <v>368</v>
+      </c>
+      <c r="D334" t="s">
+        <v>29</v>
+      </c>
+      <c r="E334" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>369</v>
+      </c>
+      <c r="B335" t="s">
+        <v>371</v>
+      </c>
+      <c r="C335" t="s">
+        <v>368</v>
+      </c>
+      <c r="D335" t="s">
+        <v>8</v>
+      </c>
+      <c r="E335">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>323</v>
-      </c>
-      <c r="B46" t="s">
-        <v>328</v>
-      </c>
-      <c r="C46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>372</v>
+      </c>
+      <c r="B336" t="s">
+        <v>373</v>
+      </c>
+      <c r="C336" t="s">
+        <v>374</v>
+      </c>
+      <c r="D336" t="s">
+        <v>93</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>372</v>
+      </c>
+      <c r="B337" t="s">
+        <v>376</v>
+      </c>
+      <c r="C337" t="s">
+        <v>374</v>
+      </c>
+      <c r="D337" t="s">
+        <v>93</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>377</v>
+      </c>
+      <c r="B338" t="s">
+        <v>378</v>
+      </c>
+      <c r="C338" t="s">
+        <v>374</v>
+      </c>
+      <c r="D338" t="s">
+        <v>29</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>377</v>
+      </c>
+      <c r="B339" t="s">
+        <v>379</v>
+      </c>
+      <c r="C339" t="s">
+        <v>374</v>
+      </c>
+      <c r="D339" t="s">
+        <v>8</v>
+      </c>
+      <c r="E339">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>323</v>
-      </c>
-      <c r="B47" t="s">
-        <v>329</v>
-      </c>
-      <c r="C47" t="s">
-        <v>280</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B48" t="s">
-        <v>330</v>
-      </c>
-      <c r="C48" t="s">
-        <v>280</v>
-      </c>
-      <c r="D48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>331</v>
-      </c>
-      <c r="B49" t="s">
-        <v>326</v>
-      </c>
-      <c r="C49" t="s">
-        <v>280</v>
-      </c>
-      <c r="D49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>331</v>
-      </c>
-      <c r="B50" t="s">
-        <v>327</v>
-      </c>
-      <c r="C50" t="s">
-        <v>280</v>
-      </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>377</v>
+      </c>
+      <c r="B340" t="s">
+        <v>380</v>
+      </c>
+      <c r="C340" t="s">
+        <v>374</v>
+      </c>
+      <c r="D340" t="s">
+        <v>8</v>
+      </c>
+      <c r="E340">
         <v>2</v>
       </c>
-      <c r="F50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>331</v>
-      </c>
-      <c r="B51" t="s">
-        <v>328</v>
-      </c>
-      <c r="C51" t="s">
-        <v>280</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51">
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>377</v>
+      </c>
+      <c r="B341" t="s">
+        <v>169</v>
+      </c>
+      <c r="C341" t="s">
+        <v>374</v>
+      </c>
+      <c r="D341" t="s">
+        <v>13</v>
+      </c>
+      <c r="E341" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>377</v>
+      </c>
+      <c r="B342" t="s">
+        <v>381</v>
+      </c>
+      <c r="C342" t="s">
+        <v>374</v>
+      </c>
+      <c r="D342" t="s">
+        <v>13</v>
+      </c>
+      <c r="E342" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>377</v>
+      </c>
+      <c r="B343" t="s">
+        <v>382</v>
+      </c>
+      <c r="C343" t="s">
+        <v>374</v>
+      </c>
+      <c r="D343" t="s">
+        <v>29</v>
+      </c>
+      <c r="E343">
         <v>2</v>
-      </c>
-      <c r="F51" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>331</v>
-      </c>
-      <c r="B52" t="s">
-        <v>329</v>
-      </c>
-      <c r="C52" t="s">
-        <v>280</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>331</v>
-      </c>
-      <c r="B53" t="s">
-        <v>330</v>
-      </c>
-      <c r="C53" t="s">
-        <v>280</v>
-      </c>
-      <c r="D53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>331</v>
-      </c>
-      <c r="B54" t="s">
-        <v>334</v>
-      </c>
-      <c r="C54" t="s">
-        <v>280</v>
-      </c>
-      <c r="D54" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>335</v>
-      </c>
-      <c r="B55" t="s">
-        <v>336</v>
-      </c>
-      <c r="C55" t="s">
-        <v>280</v>
-      </c>
-      <c r="D55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>335</v>
-      </c>
-      <c r="B56" t="s">
-        <v>337</v>
-      </c>
-      <c r="C56" t="s">
-        <v>280</v>
-      </c>
-      <c r="D56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>335</v>
-      </c>
-      <c r="B57" t="s">
-        <v>338</v>
-      </c>
-      <c r="C57" t="s">
-        <v>280</v>
-      </c>
-      <c r="D57" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>335</v>
-      </c>
-      <c r="B58" t="s">
-        <v>339</v>
-      </c>
-      <c r="C58" t="s">
-        <v>280</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>335</v>
-      </c>
-      <c r="B59" t="s">
-        <v>340</v>
-      </c>
-      <c r="C59" t="s">
-        <v>280</v>
-      </c>
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>335</v>
-      </c>
-      <c r="B60" t="s">
-        <v>341</v>
-      </c>
-      <c r="C60" t="s">
-        <v>280</v>
-      </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>335</v>
-      </c>
-      <c r="B61" t="s">
-        <v>321</v>
-      </c>
-      <c r="C61" t="s">
-        <v>280</v>
-      </c>
-      <c r="D61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>342</v>
-      </c>
-      <c r="B62" t="s">
-        <v>343</v>
-      </c>
-      <c r="C62" t="s">
-        <v>280</v>
-      </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>342</v>
-      </c>
-      <c r="B63" t="s">
-        <v>344</v>
-      </c>
-      <c r="C63" t="s">
-        <v>280</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>342</v>
-      </c>
-      <c r="B64" t="s">
-        <v>345</v>
-      </c>
-      <c r="C64" t="s">
-        <v>280</v>
-      </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>342</v>
-      </c>
-      <c r="B65" t="s">
-        <v>346</v>
-      </c>
-      <c r="C65" t="s">
-        <v>280</v>
-      </c>
-      <c r="D65" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>342</v>
-      </c>
-      <c r="B66" t="s">
-        <v>347</v>
-      </c>
-      <c r="C66" t="s">
-        <v>280</v>
-      </c>
-      <c r="D66" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>342</v>
-      </c>
-      <c r="B67" t="s">
-        <v>348</v>
-      </c>
-      <c r="C67" t="s">
-        <v>280</v>
-      </c>
-      <c r="D67" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>342</v>
-      </c>
-      <c r="B68" t="s">
-        <v>349</v>
-      </c>
-      <c r="C68" t="s">
-        <v>280</v>
-      </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>342</v>
-      </c>
-      <c r="B69" t="s">
-        <v>350</v>
-      </c>
-      <c r="C69" t="s">
-        <v>280</v>
-      </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>342</v>
-      </c>
-      <c r="B70" t="s">
-        <v>351</v>
-      </c>
-      <c r="C70" t="s">
-        <v>280</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>342</v>
-      </c>
-      <c r="B71" t="s">
-        <v>352</v>
-      </c>
-      <c r="C71" t="s">
-        <v>280</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>342</v>
-      </c>
-      <c r="B72" t="s">
-        <v>353</v>
-      </c>
-      <c r="C72" t="s">
-        <v>280</v>
-      </c>
-      <c r="D72" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>342</v>
-      </c>
-      <c r="B73" t="s">
-        <v>354</v>
-      </c>
-      <c r="C73" t="s">
-        <v>280</v>
-      </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>342</v>
-      </c>
-      <c r="B74" t="s">
-        <v>356</v>
-      </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>357</v>
-      </c>
-      <c r="B75" t="s">
-        <v>358</v>
-      </c>
-      <c r="C75" t="s">
-        <v>280</v>
-      </c>
-      <c r="D75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>357</v>
-      </c>
-      <c r="B76" t="s">
-        <v>359</v>
-      </c>
-      <c r="C76" t="s">
-        <v>280</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>357</v>
-      </c>
-      <c r="B77" t="s">
-        <v>360</v>
-      </c>
-      <c r="C77" t="s">
-        <v>280</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/blocks.xlsx
+++ b/database/blocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\repo\sja-plus\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA224BA7-4F4A-4089-92A8-08BA88141F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6657357A-E33E-46F3-ADFC-68BA95BBB9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7930" yWindow="1170" windowWidth="14400" windowHeight="9290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3170" yWindow="4190" windowWidth="14400" windowHeight="9290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="各平台积木总表" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="518">
   <si>
     <t>Type</t>
   </si>
@@ -1274,13 +1274,335 @@
   </si>
   <si>
     <t>getCharByUnicode</t>
+  </si>
+  <si>
+    <t>sentence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arkosExtensions</t>
+  </si>
+  <si>
+    <t>getDirFromAToB</t>
+  </si>
+  <si>
+    <t>differenceBetweenDirections</t>
+  </si>
+  <si>
+    <t>disFromAToB</t>
+  </si>
+  <si>
+    <t>turnDegreesToDir</t>
+  </si>
+  <si>
+    <t>indexof</t>
+  </si>
+  <si>
+    <t>insertStr</t>
+  </si>
+  <si>
+    <t>replaceStr</t>
+  </si>
+  <si>
+    <t>strictlyEquals</t>
+  </si>
+  <si>
+    <t>reporterToBoolean</t>
+  </si>
+  <si>
+    <t>compareTwoSides</t>
+  </si>
+  <si>
+    <t>compareTwoSidesPlus</t>
+  </si>
+  <si>
+    <t>colorToHex</t>
+  </si>
+  <si>
+    <t>setSize</t>
+  </si>
+  <si>
+    <t>setXY</t>
+  </si>
+  <si>
+    <t>getEffect</t>
+  </si>
+  <si>
+    <t>isHiding</t>
+  </si>
+  <si>
+    <t>getRotationStyle</t>
+  </si>
+  <si>
+    <t>getWidthOrHeight</t>
+  </si>
+  <si>
+    <t>getBoundaryCoord</t>
+  </si>
+  <si>
+    <t>isOutOfSight</t>
+  </si>
+  <si>
+    <t>clearSortedTable</t>
+  </si>
+  <si>
+    <t>menu_sortedTableMenu</t>
+  </si>
+  <si>
+    <t>setTypeOfSortedTable</t>
+  </si>
+  <si>
+    <t>addToSortedTable</t>
+  </si>
+  <si>
+    <t>getFromSortedTableByNo</t>
+  </si>
+  <si>
+    <t>getFromSortedTableByName</t>
+  </si>
+  <si>
+    <t>lengthOfSortedTable</t>
+  </si>
+  <si>
+    <t>deleteNameOfSortedTable</t>
+  </si>
+  <si>
+    <t>deleteAllTempData</t>
+  </si>
+  <si>
+    <t>getCountOfTempData</t>
+  </si>
+  <si>
+    <t>delTempData</t>
+  </si>
+  <si>
+    <t>setTempVar</t>
+  </si>
+  <si>
+    <t>addTempVar</t>
+  </si>
+  <si>
+    <t>getTempVar</t>
+  </si>
+  <si>
+    <t>clearTempList</t>
+  </si>
+  <si>
+    <t>initTempList</t>
+  </si>
+  <si>
+    <t>addTempList</t>
+  </si>
+  <si>
+    <t>opTempList</t>
+  </si>
+  <si>
+    <t>delItemOfTempList</t>
+  </si>
+  <si>
+    <t>getItemOfTempList</t>
+  </si>
+  <si>
+    <t>lengthOfTempList</t>
+  </si>
+  <si>
+    <t>clearTempCon</t>
+  </si>
+  <si>
+    <t>initTempCon</t>
+  </si>
+  <si>
+    <t>opTempCon</t>
+  </si>
+  <si>
+    <t>delItemOfTempCon</t>
+  </si>
+  <si>
+    <t>getItemOfTempConByName</t>
+  </si>
+  <si>
+    <t>getItemOfTempConByNo</t>
+  </si>
+  <si>
+    <t>lengthOfTempCon</t>
+  </si>
+  <si>
+    <t>mirrorSprite</t>
+  </si>
+  <si>
+    <t>clearMirror</t>
+  </si>
+  <si>
+    <t>box2d</t>
+  </si>
+  <si>
+    <t>setStage</t>
+  </si>
+  <si>
+    <t>setGravity</t>
+  </si>
+  <si>
+    <t>setPhysics</t>
+  </si>
+  <si>
+    <t>doTick</t>
+  </si>
+  <si>
+    <t>setPosition</t>
+  </si>
+  <si>
+    <t>setVelocity</t>
+  </si>
+  <si>
+    <t>changeVelocity</t>
+  </si>
+  <si>
+    <t>getVelocityX</t>
+  </si>
+  <si>
+    <t>getVelocityY</t>
+  </si>
+  <si>
+    <t>applyForce</t>
+  </si>
+  <si>
+    <t>applyAngForce</t>
+  </si>
+  <si>
+    <t>setStatic</t>
+  </si>
+  <si>
+    <t>setProperties</t>
+  </si>
+  <si>
+    <t>getTouching</t>
+  </si>
+  <si>
+    <t>setScroll</t>
+  </si>
+  <si>
+    <t>changeScroll</t>
+  </si>
+  <si>
+    <t>getScrollX</t>
+  </si>
+  <si>
+    <t>getScrollY</t>
+  </si>
+  <si>
+    <t>CCWCanvasV2</t>
+  </si>
+  <si>
+    <t>goToFrontBack</t>
+  </si>
+  <si>
+    <t>goForwardBackwardLayers</t>
+  </si>
+  <si>
+    <t>clearCurrent</t>
+  </si>
+  <si>
+    <t>scratchX2Canvas</t>
+  </si>
+  <si>
+    <t>scratchY2Canvas</t>
+  </si>
+  <si>
+    <t>canvasX2Scratch</t>
+  </si>
+  <si>
+    <t>canvasY2Scratch</t>
+  </si>
+  <si>
+    <t>clearRectangle</t>
+  </si>
+  <si>
+    <t>clearEllipse</t>
+  </si>
+  <si>
+    <t>setAlpha</t>
+  </si>
+  <si>
+    <t>setColor</t>
+  </si>
+  <si>
+    <t>setColorWithOptions</t>
+  </si>
+  <si>
+    <t>setFill</t>
+  </si>
+  <si>
+    <t>drawPoint</t>
+  </si>
+  <si>
+    <t>drawLine</t>
+  </si>
+  <si>
+    <t>drawRectangle</t>
+  </si>
+  <si>
+    <t>drawTriangle</t>
+  </si>
+  <si>
+    <t>drawEllipse</t>
+  </si>
+  <si>
+    <t>drawBezier</t>
+  </si>
+  <si>
+    <t>drawText</t>
+  </si>
+  <si>
+    <t>drawTextWithOption</t>
+  </si>
+  <si>
+    <t>setFontSize</t>
+  </si>
+  <si>
+    <t>getImageWidth</t>
+  </si>
+  <si>
+    <t>getImageHeight</t>
+  </si>
+  <si>
+    <t>autoDrawOnStage</t>
+  </si>
+  <si>
+    <t>drawOnStage</t>
+  </si>
+  <si>
+    <t>arcTo</t>
+  </si>
+  <si>
+    <t>measureTextWidth</t>
+  </si>
+  <si>
+    <t>drawFromCanvas</t>
+  </si>
+  <si>
+    <t>setComposite</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1290,6 +1612,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1316,11 +1646,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1601,17 +1935,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F489"/>
+  <dimension ref="A1:F834"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B367" sqref="B367"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D483" sqref="D483:D486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="21.58203125" customWidth="1"/>
+    <col min="2" max="2" width="25.08203125" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="30.4140625" style="1" customWidth="1"/>
@@ -6477,6 +6811,9 @@
       <c r="C344" t="s">
         <v>389</v>
       </c>
+      <c r="D344" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
@@ -6488,6 +6825,9 @@
       <c r="C345" t="s">
         <v>389</v>
       </c>
+      <c r="D345" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
@@ -6499,6 +6839,9 @@
       <c r="C346" t="s">
         <v>389</v>
       </c>
+      <c r="D346" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
@@ -6510,6 +6853,9 @@
       <c r="C347" t="s">
         <v>389</v>
       </c>
+      <c r="D347" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
@@ -6521,6 +6867,9 @@
       <c r="C348" t="s">
         <v>389</v>
       </c>
+      <c r="D348" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
@@ -6532,6 +6881,9 @@
       <c r="C349" t="s">
         <v>389</v>
       </c>
+      <c r="D349" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
@@ -6543,6 +6895,9 @@
       <c r="C350" t="s">
         <v>389</v>
       </c>
+      <c r="D350" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
@@ -6554,6 +6909,9 @@
       <c r="C351" t="s">
         <v>389</v>
       </c>
+      <c r="D351" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
@@ -6565,8 +6923,11 @@
       <c r="C352" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D352" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>390</v>
       </c>
@@ -6576,8 +6937,11 @@
       <c r="C353" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D353" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>390</v>
       </c>
@@ -6587,8 +6951,11 @@
       <c r="C354" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D354" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>390</v>
       </c>
@@ -6598,8 +6965,11 @@
       <c r="C355" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D355" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>390</v>
       </c>
@@ -6609,8 +6979,11 @@
       <c r="C356" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D356" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>390</v>
       </c>
@@ -6620,8 +6993,11 @@
       <c r="C357" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D357" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>390</v>
       </c>
@@ -6631,8 +7007,11 @@
       <c r="C358" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D358" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>390</v>
       </c>
@@ -6642,8 +7021,11 @@
       <c r="C359" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D359" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>390</v>
       </c>
@@ -6653,8 +7035,11 @@
       <c r="C360" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D360" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>390</v>
       </c>
@@ -6664,8 +7049,11 @@
       <c r="C361" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D361" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>390</v>
       </c>
@@ -6675,8 +7063,11 @@
       <c r="C362" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D362" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>390</v>
       </c>
@@ -6686,8 +7077,11 @@
       <c r="C363" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D363" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>390</v>
       </c>
@@ -6697,629 +7091,3419 @@
       <c r="C364" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D364" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>415</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="C365" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D365" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>415</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="C366" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D366" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>415</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="C367" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D367" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>415</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>419</v>
+      </c>
       <c r="C368" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D368" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>415</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="C369" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D369" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>415</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="C370" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D370" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>415</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="C371" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D371" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>415</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="C372" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D372" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>415</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="C373" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D373" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>415</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="C374" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D374" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>415</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>426</v>
+      </c>
       <c r="C375" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D375" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>415</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>427</v>
+      </c>
       <c r="C376" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D376" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>415</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="C377" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D377" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>415</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>429</v>
+      </c>
       <c r="C378" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D378" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>415</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="C379" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D379" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>415</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>431</v>
+      </c>
       <c r="C380" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D380" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>415</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="C381" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D381" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>415</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="C382" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D382" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>415</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="C383" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D383" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>415</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="C384" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D384" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>415</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>436</v>
+      </c>
       <c r="C385" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D385" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>415</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="C386" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D386" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>415</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>437</v>
+      </c>
       <c r="C387" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D387" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>415</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="C388" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D388" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>415</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="C389" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D389" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>415</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="C390" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D390" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>415</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="C391" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D391" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>415</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>443</v>
+      </c>
       <c r="C392" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D392" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>415</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="C393" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D393" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>415</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>445</v>
+      </c>
       <c r="C394" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D394" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>415</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="C395" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D395" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>415</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>447</v>
+      </c>
       <c r="C396" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D396" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>415</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="C397" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D397" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>415</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="C398" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D398" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>415</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>450</v>
+      </c>
       <c r="C399" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D399" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>415</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="C400" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D400" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>415</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="C401" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D401" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>415</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="C402" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D402" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>415</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="C403" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D403" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>415</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>455</v>
+      </c>
       <c r="C404" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D404" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>415</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>456</v>
+      </c>
       <c r="C405" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D405" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>415</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="C406" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D406" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>415</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>458</v>
+      </c>
       <c r="C407" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D407" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>415</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="C408" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D408" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>415</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>460</v>
+      </c>
       <c r="C409" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D409" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>415</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="C410" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D410" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>415</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="C411" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D411" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>415</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>463</v>
+      </c>
       <c r="C412" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D412" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>415</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="C413" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>415</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="C414" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D414" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>466</v>
+      </c>
+      <c r="B415" t="s">
+        <v>467</v>
+      </c>
       <c r="C415" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D415" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>466</v>
+      </c>
+      <c r="B416" t="s">
+        <v>468</v>
+      </c>
       <c r="C416" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D416" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>466</v>
+      </c>
+      <c r="B417" t="s">
+        <v>469</v>
+      </c>
       <c r="C417" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D417" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>466</v>
+      </c>
+      <c r="B418" t="s">
+        <v>470</v>
+      </c>
       <c r="C418" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D418" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>466</v>
+      </c>
+      <c r="B419" t="s">
+        <v>471</v>
+      </c>
       <c r="C419" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D419" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>466</v>
+      </c>
+      <c r="B420" t="s">
+        <v>472</v>
+      </c>
       <c r="C420" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D420" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>466</v>
+      </c>
+      <c r="B421" t="s">
+        <v>473</v>
+      </c>
       <c r="C421" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D421" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>466</v>
+      </c>
+      <c r="B422" t="s">
+        <v>474</v>
+      </c>
       <c r="C422" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D422" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>466</v>
+      </c>
+      <c r="B423" t="s">
+        <v>475</v>
+      </c>
       <c r="C423" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D423" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>466</v>
+      </c>
+      <c r="B424" t="s">
+        <v>476</v>
+      </c>
       <c r="C424" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D424" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>466</v>
+      </c>
+      <c r="B425" t="s">
+        <v>477</v>
+      </c>
       <c r="C425" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D425" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>466</v>
+      </c>
+      <c r="B426" t="s">
+        <v>478</v>
+      </c>
       <c r="C426" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D426" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>466</v>
+      </c>
+      <c r="B427" t="s">
+        <v>479</v>
+      </c>
       <c r="C427" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D427" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>466</v>
+      </c>
+      <c r="B428" t="s">
+        <v>480</v>
+      </c>
       <c r="C428" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D428" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>466</v>
+      </c>
+      <c r="B429" t="s">
+        <v>481</v>
+      </c>
       <c r="C429" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D429" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>466</v>
+      </c>
+      <c r="B430" t="s">
+        <v>482</v>
+      </c>
       <c r="C430" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D430" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>466</v>
+      </c>
+      <c r="B431" t="s">
+        <v>483</v>
+      </c>
       <c r="C431" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D431" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>466</v>
+      </c>
+      <c r="B432" t="s">
+        <v>484</v>
+      </c>
       <c r="C432" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D432" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>485</v>
+      </c>
+      <c r="B433" t="s">
+        <v>486</v>
+      </c>
       <c r="C433" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D433" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>485</v>
+      </c>
+      <c r="B434" t="s">
+        <v>487</v>
+      </c>
       <c r="C434" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D434" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>485</v>
+      </c>
+      <c r="B435" t="s">
+        <v>488</v>
+      </c>
       <c r="C435" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D435" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>485</v>
+      </c>
+      <c r="B436" t="s">
+        <v>489</v>
+      </c>
       <c r="C436" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D436" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>485</v>
+      </c>
+      <c r="B437" t="s">
+        <v>490</v>
+      </c>
       <c r="C437" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D437" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>485</v>
+      </c>
+      <c r="B438" t="s">
+        <v>491</v>
+      </c>
       <c r="C438" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D438" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>485</v>
+      </c>
+      <c r="B439" t="s">
+        <v>492</v>
+      </c>
       <c r="C439" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D439" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>485</v>
+      </c>
+      <c r="B440" t="s">
+        <v>493</v>
+      </c>
       <c r="C440" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D440" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>485</v>
+      </c>
+      <c r="B441" t="s">
+        <v>494</v>
+      </c>
       <c r="C441" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D441" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>485</v>
+      </c>
+      <c r="B442" t="s">
+        <v>495</v>
+      </c>
       <c r="C442" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D442" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>485</v>
+      </c>
+      <c r="B443" t="s">
+        <v>496</v>
+      </c>
       <c r="C443" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D443" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>485</v>
+      </c>
+      <c r="B444" t="s">
+        <v>497</v>
+      </c>
       <c r="C444" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D444" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>485</v>
+      </c>
+      <c r="B445" t="s">
+        <v>498</v>
+      </c>
       <c r="C445" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D445" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>485</v>
+      </c>
+      <c r="B446" t="s">
+        <v>283</v>
+      </c>
       <c r="C446" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D446" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>485</v>
+      </c>
+      <c r="B447" t="s">
+        <v>284</v>
+      </c>
       <c r="C447" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D447" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>485</v>
+      </c>
+      <c r="B448" t="s">
+        <v>499</v>
+      </c>
       <c r="C448" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D448" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>485</v>
+      </c>
+      <c r="B449" t="s">
+        <v>500</v>
+      </c>
       <c r="C449" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D449" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>485</v>
+      </c>
+      <c r="B450" t="s">
+        <v>501</v>
+      </c>
       <c r="C450" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D450" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>485</v>
+      </c>
+      <c r="B451" t="s">
+        <v>502</v>
+      </c>
       <c r="C451" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D451" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>485</v>
+      </c>
+      <c r="B452" t="s">
+        <v>503</v>
+      </c>
       <c r="C452" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D452" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>485</v>
+      </c>
+      <c r="B453" t="s">
+        <v>504</v>
+      </c>
       <c r="C453" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D453" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>485</v>
+      </c>
+      <c r="B454" t="s">
+        <v>505</v>
+      </c>
       <c r="C454" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D454" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>485</v>
+      </c>
+      <c r="B455" t="s">
+        <v>506</v>
+      </c>
       <c r="C455" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D455" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>485</v>
+      </c>
+      <c r="B456" t="s">
+        <v>507</v>
+      </c>
       <c r="C456" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D456" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>485</v>
+      </c>
+      <c r="B457" t="s">
+        <v>290</v>
+      </c>
       <c r="C457" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D457" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>485</v>
+      </c>
+      <c r="B458" t="s">
+        <v>294</v>
+      </c>
       <c r="C458" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D458" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>485</v>
+      </c>
+      <c r="B459" t="s">
+        <v>508</v>
+      </c>
       <c r="C459" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D459" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>485</v>
+      </c>
+      <c r="B460" t="s">
+        <v>509</v>
+      </c>
       <c r="C460" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D460" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>485</v>
+      </c>
+      <c r="B461" t="s">
+        <v>295</v>
+      </c>
       <c r="C461" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D461" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>485</v>
+      </c>
+      <c r="B462" t="s">
+        <v>510</v>
+      </c>
       <c r="C462" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D462" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>485</v>
+      </c>
+      <c r="B463" t="s">
+        <v>511</v>
+      </c>
       <c r="C463" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D463" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>485</v>
+      </c>
+      <c r="B464" t="s">
+        <v>276</v>
+      </c>
       <c r="C464" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D464" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>485</v>
+      </c>
+      <c r="B465" t="s">
+        <v>277</v>
+      </c>
       <c r="C465" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D465" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>485</v>
+      </c>
+      <c r="B466" t="s">
+        <v>278</v>
+      </c>
       <c r="C466" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D466" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>485</v>
+      </c>
+      <c r="B467" t="s">
+        <v>279</v>
+      </c>
       <c r="C467" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D467" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>485</v>
+      </c>
+      <c r="B468" t="s">
+        <v>512</v>
+      </c>
       <c r="C468" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D468" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>485</v>
+      </c>
+      <c r="B469" t="s">
+        <v>282</v>
+      </c>
       <c r="C469" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D469" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>485</v>
+      </c>
+      <c r="B470" t="s">
+        <v>287</v>
+      </c>
       <c r="C470" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D470" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>485</v>
+      </c>
+      <c r="B471" t="s">
+        <v>288</v>
+      </c>
       <c r="C471" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D471" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>485</v>
+      </c>
+      <c r="B472" t="s">
+        <v>513</v>
+      </c>
       <c r="C472" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D472" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>485</v>
+      </c>
+      <c r="B473" t="s">
+        <v>296</v>
+      </c>
       <c r="C473" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D473" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>485</v>
+      </c>
+      <c r="B474" t="s">
+        <v>297</v>
+      </c>
       <c r="C474" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D474" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>485</v>
+      </c>
+      <c r="B475" t="s">
+        <v>195</v>
+      </c>
       <c r="C475" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D475" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>485</v>
+      </c>
+      <c r="B476" t="s">
+        <v>298</v>
+      </c>
       <c r="C476" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D476" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>485</v>
+      </c>
+      <c r="B477" t="s">
+        <v>299</v>
+      </c>
       <c r="C477" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D477" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>485</v>
+      </c>
+      <c r="B478" t="s">
+        <v>300</v>
+      </c>
       <c r="C478" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D478" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>485</v>
+      </c>
+      <c r="B479" t="s">
+        <v>301</v>
+      </c>
       <c r="C479" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D479" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>485</v>
+      </c>
+      <c r="B480" t="s">
+        <v>514</v>
+      </c>
       <c r="C480" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D480" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>485</v>
+      </c>
+      <c r="B481" t="s">
+        <v>515</v>
+      </c>
       <c r="C481" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D481" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>485</v>
+      </c>
+      <c r="B482" t="s">
+        <v>516</v>
+      </c>
       <c r="C482" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D482" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C483" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C484" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C485" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C486" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C487" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C488" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C489" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C490" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C491" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C492" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C493" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C494" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C495" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C496" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C497" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C498" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C499" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C500" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C501" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C502" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C503" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C504" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C505" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C506" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C507" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C508" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C509" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C510" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C511" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C512" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C513" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C514" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C515" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C516" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C517" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C518" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C519" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C520" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C521" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C522" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C523" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C524" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C525" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C526" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C527" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C528" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C529" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C530" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C531" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C532" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C533" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C534" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C535" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C536" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C537" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C538" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C539" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C540" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C541" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C542" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C543" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C544" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C545" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C546" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C547" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C548" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C549" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C550" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C551" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C552" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C553" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C554" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C555" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C556" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C557" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C558" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C559" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C560" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C561" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C562" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C563" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C564" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C565" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C566" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C567" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C568" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C569" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C570" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C571" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C572" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C573" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C574" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C575" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C576" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C577" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C578" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C579" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C580" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C581" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C582" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C583" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C584" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C585" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C586" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C587" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C588" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C589" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C590" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C591" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C592" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C593" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C594" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C595" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C596" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C597" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C598" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C599" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C600" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C601" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C602" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C603" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C604" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C605" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C606" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C607" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C608" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C609" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C610" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C611" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C612" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C613" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C614" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C615" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C616" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C617" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C618" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C619" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C620" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C621" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C622" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C623" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C624" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C625" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C626" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C627" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C628" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C629" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C630" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C631" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C632" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C633" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C634" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C635" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C636" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C637" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C638" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C639" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C640" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C641" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C642" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C643" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C644" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C645" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C646" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C647" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C648" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C649" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="650" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C650" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="651" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C651" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="652" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C652" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="653" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C653" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="654" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C654" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="655" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C655" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="656" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C656" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="657" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C657" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="658" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C658" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="659" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C659" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="660" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C660" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="661" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C661" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="662" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C662" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="663" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C663" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="664" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C664" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="665" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C665" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="666" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C666" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C667" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="668" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C668" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="669" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C669" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="670" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C670" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="671" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C671" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="672" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C672" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="673" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C673" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="674" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C674" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="675" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C675" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="676" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C676" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C677" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="678" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C678" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C679" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C680" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="681" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C681" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C682" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="683" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C683" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="684" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C684" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="685" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C685" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="686" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C686" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="687" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C687" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C688" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="689" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C689" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="690" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C690" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="691" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C691" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="692" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C692" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="693" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C693" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="694" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C694" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="695" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C695" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="696" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C696" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C697" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="698" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C698" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C699" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="700" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C700" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C701" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C702" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C703" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="704" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C704" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="705" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C705" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C706" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="707" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C707" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="708" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C708" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="709" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C709" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="710" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C710" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="711" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C711" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="712" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C712" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="713" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C713" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="714" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C714" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="715" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C715" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="716" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C716" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="717" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C717" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="718" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C718" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="719" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C719" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="720" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C720" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="721" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C721" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="722" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C722" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="723" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C723" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="724" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C724" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="725" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C725" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="726" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C726" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="727" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C727" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="728" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C728" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="729" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C729" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="730" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C730" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="731" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C731" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="732" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C732" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="733" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C733" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="734" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C734" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="735" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C735" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="736" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C736" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="737" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C737" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="738" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C738" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="739" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C739" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="740" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C740" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="741" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C741" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="742" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C742" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="743" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C743" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="744" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C744" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C745" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="746" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C746" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="747" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C747" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="748" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C748" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="749" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C749" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C750" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="751" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C751" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="752" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C752" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="753" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C753" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="754" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C754" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="755" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C755" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="756" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C756" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="757" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C757" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="758" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C758" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="759" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C759" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="760" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C760" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="761" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C761" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="762" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C762" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="763" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C763" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="764" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C764" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="765" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C765" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="766" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C766" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="767" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C767" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="768" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C768" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="769" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C769" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="770" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C770" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="771" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C771" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="772" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C772" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="773" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C773" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="774" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C774" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="775" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C775" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="776" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C776" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="777" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C777" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="778" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C778" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="779" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C779" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="780" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C780" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="781" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C781" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="782" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C782" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="783" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C783" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="784" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C784" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="785" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C785" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="786" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C786" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="787" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C787" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="788" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C788" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="789" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C789" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="790" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C790" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="791" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C791" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="792" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C792" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="793" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C793" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="794" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C794" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="795" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C795" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="796" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C796" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="797" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C797" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="798" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C798" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="799" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C799" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="800" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C800" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="801" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C801" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="802" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C802" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="803" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C803" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="804" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C804" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="805" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C805" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="806" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C806" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="807" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C807" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="808" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C808" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="809" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C809" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="810" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C810" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="811" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C811" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="812" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C812" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="813" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C813" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="814" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C814" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="815" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C815" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="816" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C816" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="817" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C817" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="818" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C818" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="819" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C819" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="820" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C820" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="821" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C821" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="822" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C822" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="823" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C823" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="824" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C824" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="825" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C825" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="826" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C826" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="827" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C827" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="828" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C828" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="829" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C829" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="830" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C830" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="831" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C831" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="832" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C832" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="833" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C833" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="834" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C834" t="s">
         <v>389</v>
       </c>
     </row>

--- a/database/blocks.xlsx
+++ b/database/blocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\repo\sja-plus\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6657357A-E33E-46F3-ADFC-68BA95BBB9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6C8204-2E65-4EFF-9B8E-DE2E79AD1F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3170" yWindow="4190" windowWidth="14400" windowHeight="9290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="各平台积木总表" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="789">
   <si>
     <t>Type</t>
   </si>
@@ -1595,6 +1595,973 @@
   </si>
   <si>
     <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCWData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setValueToDB</t>
+  </si>
+  <si>
+    <t>getValueFromDB</t>
+  </si>
+  <si>
+    <t>sendPlayEventCode</t>
+  </si>
+  <si>
+    <t>isValid</t>
+  </si>
+  <si>
+    <t>getValueInJSON</t>
+  </si>
+  <si>
+    <t>setValueInJSON</t>
+  </si>
+  <si>
+    <t>fillJSONArrayToList</t>
+  </si>
+  <si>
+    <t>menu_LIST_MENU</t>
+  </si>
+  <si>
+    <t>getJSONArrayFromList</t>
+  </si>
+  <si>
+    <t>理应为bool，但是制作成了num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理应为sentence，但是制作成了num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCWMMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinOrCreate</t>
+  </si>
+  <si>
+    <t>joinOrCreateAndWait</t>
+  </si>
+  <si>
+    <t>disconnectRoom</t>
+  </si>
+  <si>
+    <t>roomLag</t>
+  </si>
+  <si>
+    <t>getRoomInfo</t>
+  </si>
+  <si>
+    <t>setRoomExtra</t>
+  </si>
+  <si>
+    <t>dispatchRoomStateChangedWithParams</t>
+  </si>
+  <si>
+    <t>hat_parameter</t>
+  </si>
+  <si>
+    <t>roomExtra</t>
+  </si>
+  <si>
+    <t>enableMultiLogin</t>
+  </si>
+  <si>
+    <t>dispatchLobbyRoomChangedWithParams</t>
+  </si>
+  <si>
+    <t>getLobbyRoomInfoAt</t>
+  </si>
+  <si>
+    <t>getLobbyRoomCount</t>
+  </si>
+  <si>
+    <t>setMatchRoomToList</t>
+  </si>
+  <si>
+    <t>getMatchRooms</t>
+  </si>
+  <si>
+    <t>joinOrCreateMatch</t>
+  </si>
+  <si>
+    <t>joinOrCreateMatchAndWait</t>
+  </si>
+  <si>
+    <t>joinMatchmaking</t>
+  </si>
+  <si>
+    <t>joinMatchmakingAndWait</t>
+  </si>
+  <si>
+    <t>lockRoom</t>
+  </si>
+  <si>
+    <t>menu_LOCK_MENU</t>
+  </si>
+  <si>
+    <t>broadcastMsg</t>
+  </si>
+  <si>
+    <t>dispatchNewMessageWithParams</t>
+  </si>
+  <si>
+    <t>getClientList</t>
+  </si>
+  <si>
+    <t>getPlayerCount</t>
+  </si>
+  <si>
+    <t>getPlayerInfo</t>
+  </si>
+  <si>
+    <t>setPlayerState</t>
+  </si>
+  <si>
+    <t>setPlayerStateXY</t>
+  </si>
+  <si>
+    <t>dispatchRoomEnter</t>
+  </si>
+  <si>
+    <t>dispatchNewPlayerWithParams</t>
+  </si>
+  <si>
+    <t>getNewPlayerInfo</t>
+  </si>
+  <si>
+    <t>dispatchPlayerLeaveWithParams</t>
+  </si>
+  <si>
+    <t>dispatchPlayerLeaveAbnormal</t>
+  </si>
+  <si>
+    <t>getLastLeftPlayerInfo</t>
+  </si>
+  <si>
+    <t>dispatchPlayerChangedWithParams</t>
+  </si>
+  <si>
+    <t>getLastStateChangedPlayerInfo</t>
+  </si>
+  <si>
+    <t>getPlayerInfoFromIndex</t>
+  </si>
+  <si>
+    <t>createCloneWithLastPlayerState</t>
+  </si>
+  <si>
+    <t>getThisClonePlayerInfo</t>
+  </si>
+  <si>
+    <t>isThisAClone</t>
+  </si>
+  <si>
+    <t>thisCloneIsMeOrNot</t>
+  </si>
+  <si>
+    <t>isCloneSessionIdEqualTo</t>
+  </si>
+  <si>
+    <t>CCWSugar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exponentiation</t>
+  </si>
+  <si>
+    <t>equalOrLess</t>
+  </si>
+  <si>
+    <t>equalOrGreater</t>
+  </si>
+  <si>
+    <t>ifElse</t>
+  </si>
+  <si>
+    <t>subString</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>splitString</t>
+  </si>
+  <si>
+    <t>copyToClipboard</t>
+  </si>
+  <si>
+    <t>community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isMyFans</t>
+  </si>
+  <si>
+    <t>isFanOfSomeone</t>
+  </si>
+  <si>
+    <t>getUserValue</t>
+  </si>
+  <si>
+    <t>menu_USER_INFO_TYPE_MENU</t>
+  </si>
+  <si>
+    <t>requestFollow</t>
+  </si>
+  <si>
+    <t>isLiked</t>
+  </si>
+  <si>
+    <t>getCoinCount</t>
+  </si>
+  <si>
+    <t>insertCoinAndWaitForResult</t>
+  </si>
+  <si>
+    <t>getProjectStatistics</t>
+  </si>
+  <si>
+    <t>postComment</t>
+  </si>
+  <si>
+    <t>isUserLikedOtherProject</t>
+  </si>
+  <si>
+    <t>isUserFavoriteOtherProject</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>genURLWithParams</t>
+  </si>
+  <si>
+    <t>getURLParams</t>
+  </si>
+  <si>
+    <t>captureStageAsAvatar</t>
+  </si>
+  <si>
+    <t>faceSensing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goToPart</t>
+  </si>
+  <si>
+    <t>pointInFaceTiltDirection</t>
+  </si>
+  <si>
+    <t>setSizeToFaceSize</t>
+  </si>
+  <si>
+    <t>whenSpriteTouchesPart</t>
+  </si>
+  <si>
+    <t>whenFaceDetected</t>
+  </si>
+  <si>
+    <t>faceIsDetected</t>
+  </si>
+  <si>
+    <t>faceTilt</t>
+  </si>
+  <si>
+    <t>faceSize</t>
+  </si>
+  <si>
+    <t>Gandi4DPocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aString</t>
+  </si>
+  <si>
+    <t>currentURL</t>
+  </si>
+  <si>
+    <t>genID</t>
+  </si>
+  <si>
+    <t>regexTest</t>
+  </si>
+  <si>
+    <t>menu_REGEX_MENU</t>
+  </si>
+  <si>
+    <t>regexMatch</t>
+  </si>
+  <si>
+    <t>menu_REGEX_MATCH_MENU</t>
+  </si>
+  <si>
+    <t>regexSplit</t>
+  </si>
+  <si>
+    <t>menu_REGEX_SPLIT_MENU</t>
+  </si>
+  <si>
+    <t>arrayDifference</t>
+  </si>
+  <si>
+    <t>arrayFindByKey</t>
+  </si>
+  <si>
+    <t>arrayIntersection</t>
+  </si>
+  <si>
+    <t>arrayUniquify</t>
+  </si>
+  <si>
+    <t>arrayConcat</t>
+  </si>
+  <si>
+    <t>arraySort</t>
+  </si>
+  <si>
+    <t>arraySortByKey</t>
+  </si>
+  <si>
+    <t>mathMinMax</t>
+  </si>
+  <si>
+    <t>dispatch4DEvent</t>
+  </si>
+  <si>
+    <t>broadcast4DEvent</t>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input内含形参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special-num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作形参或实参，形参时不计，注意前缀为ccw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gandi4DPocket</t>
+  </si>
+  <si>
+    <t>GandiAchievementAndLeaderboard</t>
+  </si>
+  <si>
+    <t>whenUIClose</t>
+  </si>
+  <si>
+    <t>showAchievementList</t>
+  </si>
+  <si>
+    <t>obtainAchievement</t>
+  </si>
+  <si>
+    <t>hasAchievement</t>
+  </si>
+  <si>
+    <t>hasAchievementByTemplateId</t>
+  </si>
+  <si>
+    <t>updateAchievementExtra</t>
+  </si>
+  <si>
+    <t>showLeaderboard</t>
+  </si>
+  <si>
+    <t>addUserScoreToLeaderboard</t>
+  </si>
+  <si>
+    <t>getUserDataFromLeaderboard</t>
+  </si>
+  <si>
+    <t>getUserBoardDataFromLeaderboardByUserId</t>
+  </si>
+  <si>
+    <t>GandiAStarExtension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GandiDolly-0.1.2</t>
+  </si>
+  <si>
+    <t>GandiFermi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GandiMedia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GandiPureMath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GandiQuake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GandiTerminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lazyMusic</t>
+  </si>
+  <si>
+    <t>RegExpVI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>VIDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPathBetweenSprites</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_SPRITE_LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_LIST_MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemOfList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawDebugCanvasWithPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isTouching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_SPRITE_MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTouchedCloneProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloneAndSetKV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteCloneById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchWhenCloned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchWhenCloneDeleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCloneProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertyOfSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setTargetKV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kvOfSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMyValueByKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myValueOfKeyIsEqualTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMyProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCloner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setFramerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hqPen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fencing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showHidePause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showHideCursor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiThead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addVideoResources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_VIDEO_LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadAudioResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_AUDIO_LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchWhenVideoResourceLoaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchWhenAudioResourceLoaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disposeResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listOfResources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoPlaybackStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVideoPropertyByName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchWhenVideoEventReceived</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopVideoPlayback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seekVideoPlayback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playVideoAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setVideoVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audioPlaybackStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchWhenAudioStatusChanged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playAudioAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopAudioPlayback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAudioPlayerProperties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setAudioResourceVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audioFXLPF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audioFXReverb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audioFXDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audioFXVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audioFXPan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audioPlayNote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evalExpr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simplifyExpr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableQuake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeQuake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glitchDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filmNoise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filmScanLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filmColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shadowDecay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shockwave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noiseBlur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showTerminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_SHOW_HIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traceWhenChanged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchEventFromTerminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whenChanged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadMusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playMusicFromSeconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setMusicPlayRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopPlayMusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movegrids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_RegExpPicker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countrange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concatwithseparator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupreference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findtext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findnext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isfound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foundtext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foundtextbegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foundtextend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foundtextgroups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animateText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setFont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timezone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timezonemin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isWalkable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCurrentTargetOnWalkable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addRectangleObstacle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastOrAccurate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含有可填参数块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含可填num参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含可填bool参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含形参，使用ccw_hat_parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含ccwhat形参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1935,11 +2902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F834"/>
+  <dimension ref="A1:F726"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D483" sqref="D483:D486"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B724" sqref="B724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1947,7 +2914,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="25.08203125" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="30.4140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8719,7 +9686,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>485</v>
       </c>
@@ -8733,7 +9700,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>485</v>
       </c>
@@ -8747,1764 +9714,3471 @@
         <v>412</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>518</v>
+      </c>
+      <c r="B483" t="s">
+        <v>519</v>
+      </c>
       <c r="C483" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D483" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>518</v>
+      </c>
+      <c r="B484" t="s">
+        <v>520</v>
+      </c>
       <c r="C484" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D484" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>518</v>
+      </c>
+      <c r="B485" t="s">
+        <v>521</v>
+      </c>
       <c r="C485" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D485" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>518</v>
+      </c>
+      <c r="B486" t="s">
+        <v>522</v>
+      </c>
       <c r="C486" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D486" t="s">
+        <v>413</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>518</v>
+      </c>
+      <c r="B487" t="s">
+        <v>523</v>
+      </c>
       <c r="C487" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D487" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>518</v>
+      </c>
+      <c r="B488" t="s">
+        <v>524</v>
+      </c>
       <c r="C488" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D488" t="s">
+        <v>413</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>518</v>
+      </c>
+      <c r="B489" t="s">
+        <v>525</v>
+      </c>
       <c r="C489" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D489" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>518</v>
+      </c>
+      <c r="B490" t="s">
+        <v>526</v>
+      </c>
       <c r="C490" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D490" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>518</v>
+      </c>
+      <c r="B491" t="s">
+        <v>527</v>
+      </c>
       <c r="C491" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D491" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>530</v>
+      </c>
+      <c r="B492" t="s">
+        <v>531</v>
+      </c>
       <c r="C492" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D492" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>530</v>
+      </c>
+      <c r="B493" t="s">
+        <v>532</v>
+      </c>
       <c r="C493" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D493" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>530</v>
+      </c>
+      <c r="B494" t="s">
+        <v>533</v>
+      </c>
       <c r="C494" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D494" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>530</v>
+      </c>
+      <c r="B495" t="s">
+        <v>534</v>
+      </c>
       <c r="C495" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D495" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>530</v>
+      </c>
+      <c r="B496" t="s">
+        <v>535</v>
+      </c>
       <c r="C496" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D496" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>530</v>
+      </c>
+      <c r="B497" t="s">
+        <v>536</v>
+      </c>
       <c r="C497" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D497" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>530</v>
+      </c>
+      <c r="B498" t="s">
+        <v>537</v>
+      </c>
       <c r="C498" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D498" t="s">
+        <v>628</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>389</v>
+      </c>
+      <c r="B499" t="s">
+        <v>538</v>
+      </c>
       <c r="C499" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D499" t="s">
+        <v>630</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>530</v>
+      </c>
+      <c r="B500" t="s">
+        <v>539</v>
+      </c>
       <c r="C500" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D500" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>530</v>
+      </c>
+      <c r="B501" t="s">
+        <v>540</v>
+      </c>
       <c r="C501" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D501" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>530</v>
+      </c>
+      <c r="B502" t="s">
+        <v>541</v>
+      </c>
       <c r="C502" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D502" t="s">
+        <v>628</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>530</v>
+      </c>
+      <c r="B503" t="s">
+        <v>542</v>
+      </c>
       <c r="C503" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D503" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>530</v>
+      </c>
+      <c r="B504" t="s">
+        <v>543</v>
+      </c>
       <c r="C504" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D504" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>530</v>
+      </c>
+      <c r="B505" t="s">
+        <v>544</v>
+      </c>
       <c r="C505" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D505" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>530</v>
+      </c>
+      <c r="B506" t="s">
+        <v>526</v>
+      </c>
       <c r="C506" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D506" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>530</v>
+      </c>
+      <c r="B507" t="s">
+        <v>545</v>
+      </c>
       <c r="C507" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D507" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>530</v>
+      </c>
+      <c r="B508" t="s">
+        <v>546</v>
+      </c>
       <c r="C508" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D508" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>530</v>
+      </c>
+      <c r="B509" t="s">
+        <v>547</v>
+      </c>
       <c r="C509" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D509" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>530</v>
+      </c>
+      <c r="B510" t="s">
+        <v>548</v>
+      </c>
       <c r="C510" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D510" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>530</v>
+      </c>
+      <c r="B511" t="s">
+        <v>549</v>
+      </c>
       <c r="C511" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D511" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>530</v>
+      </c>
+      <c r="B512" t="s">
+        <v>550</v>
+      </c>
       <c r="C512" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D512" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>530</v>
+      </c>
+      <c r="B513" t="s">
+        <v>551</v>
+      </c>
       <c r="C513" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D513" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>530</v>
+      </c>
+      <c r="B514" t="s">
+        <v>552</v>
+      </c>
       <c r="C514" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D514" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>530</v>
+      </c>
+      <c r="B515" t="s">
+        <v>553</v>
+      </c>
       <c r="C515" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D515" t="s">
+        <v>628</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>530</v>
+      </c>
+      <c r="B516" t="s">
+        <v>554</v>
+      </c>
       <c r="C516" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D516" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>530</v>
+      </c>
+      <c r="B517" t="s">
+        <v>555</v>
+      </c>
       <c r="C517" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D517" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>530</v>
+      </c>
+      <c r="B518" t="s">
+        <v>556</v>
+      </c>
       <c r="C518" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D518" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>530</v>
+      </c>
+      <c r="B519" t="s">
+        <v>557</v>
+      </c>
       <c r="C519" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D519" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>530</v>
+      </c>
+      <c r="B520" t="s">
+        <v>558</v>
+      </c>
       <c r="C520" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D520" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>530</v>
+      </c>
+      <c r="B521" t="s">
+        <v>559</v>
+      </c>
       <c r="C521" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D521" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>530</v>
+      </c>
+      <c r="B522" t="s">
+        <v>560</v>
+      </c>
       <c r="C522" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D522" t="s">
+        <v>628</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>530</v>
+      </c>
+      <c r="B523" t="s">
+        <v>561</v>
+      </c>
       <c r="C523" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D523" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>530</v>
+      </c>
+      <c r="B524" t="s">
+        <v>562</v>
+      </c>
       <c r="C524" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D524" t="s">
+        <v>628</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>530</v>
+      </c>
+      <c r="B525" t="s">
+        <v>563</v>
+      </c>
       <c r="C525" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D525" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>530</v>
+      </c>
+      <c r="B526" t="s">
+        <v>564</v>
+      </c>
       <c r="C526" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D526" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>530</v>
+      </c>
+      <c r="B527" t="s">
+        <v>565</v>
+      </c>
       <c r="C527" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D527" t="s">
+        <v>628</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>530</v>
+      </c>
+      <c r="B528" t="s">
+        <v>566</v>
+      </c>
       <c r="C528" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D528" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>530</v>
+      </c>
+      <c r="B529" t="s">
+        <v>567</v>
+      </c>
       <c r="C529" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D529" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>530</v>
+      </c>
+      <c r="B530" t="s">
+        <v>568</v>
+      </c>
       <c r="C530" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D530" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+      <c r="B531" t="s">
+        <v>569</v>
+      </c>
       <c r="C531" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D531" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>570</v>
+      </c>
       <c r="C532" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D532" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>530</v>
+      </c>
+      <c r="B533" t="s">
+        <v>571</v>
+      </c>
       <c r="C533" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D533" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>530</v>
+      </c>
+      <c r="B534" t="s">
+        <v>572</v>
+      </c>
       <c r="C534" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D534" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>573</v>
+      </c>
+      <c r="B535" t="s">
+        <v>574</v>
+      </c>
       <c r="C535" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D535" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>573</v>
+      </c>
+      <c r="B536" t="s">
+        <v>575</v>
+      </c>
       <c r="C536" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D536" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>573</v>
+      </c>
+      <c r="B537" t="s">
+        <v>576</v>
+      </c>
       <c r="C537" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D537" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>573</v>
+      </c>
+      <c r="B538" t="s">
+        <v>577</v>
+      </c>
       <c r="C538" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D538" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>573</v>
+      </c>
+      <c r="B539" t="s">
+        <v>578</v>
+      </c>
       <c r="C539" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D539" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>573</v>
+      </c>
+      <c r="B540" t="s">
+        <v>579</v>
+      </c>
       <c r="C540" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D540" t="s">
+        <v>628</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>573</v>
+      </c>
+      <c r="B541" t="s">
+        <v>580</v>
+      </c>
       <c r="C541" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D541" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>573</v>
+      </c>
+      <c r="B542" t="s">
+        <v>581</v>
+      </c>
       <c r="C542" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D542" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>582</v>
+      </c>
+      <c r="B543" t="s">
+        <v>583</v>
+      </c>
       <c r="C543" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D543" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>582</v>
+      </c>
+      <c r="B544" t="s">
+        <v>584</v>
+      </c>
       <c r="C544" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D544" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>582</v>
+      </c>
+      <c r="B545" t="s">
+        <v>585</v>
+      </c>
       <c r="C545" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D545" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>582</v>
+      </c>
+      <c r="B546" t="s">
+        <v>586</v>
+      </c>
       <c r="C546" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D546" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>582</v>
+      </c>
+      <c r="B547" t="s">
+        <v>587</v>
+      </c>
       <c r="C547" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D547" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>582</v>
+      </c>
+      <c r="B548" t="s">
+        <v>588</v>
+      </c>
       <c r="C548" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D548" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>582</v>
+      </c>
+      <c r="B549" t="s">
+        <v>589</v>
+      </c>
       <c r="C549" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D549" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>582</v>
+      </c>
+      <c r="B550" t="s">
+        <v>590</v>
+      </c>
       <c r="C550" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D550" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>582</v>
+      </c>
+      <c r="B551" t="s">
+        <v>591</v>
+      </c>
       <c r="C551" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D551" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>582</v>
+      </c>
+      <c r="B552" t="s">
+        <v>592</v>
+      </c>
       <c r="C552" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D552" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>582</v>
+      </c>
+      <c r="B553" t="s">
+        <v>593</v>
+      </c>
       <c r="C553" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D553" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>582</v>
+      </c>
+      <c r="B554" t="s">
+        <v>594</v>
+      </c>
       <c r="C554" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D554" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>582</v>
+      </c>
+      <c r="B555" t="s">
+        <v>595</v>
+      </c>
       <c r="C555" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D555" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>582</v>
+      </c>
+      <c r="B556" t="s">
+        <v>596</v>
+      </c>
       <c r="C556" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D556" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>582</v>
+      </c>
+      <c r="B557" t="s">
+        <v>597</v>
+      </c>
       <c r="C557" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D557" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>582</v>
+      </c>
+      <c r="B558" t="s">
+        <v>598</v>
+      </c>
       <c r="C558" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D558" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>599</v>
+      </c>
+      <c r="B559" t="s">
+        <v>600</v>
+      </c>
       <c r="C559" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D559" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>599</v>
+      </c>
+      <c r="B560" t="s">
+        <v>601</v>
+      </c>
       <c r="C560" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D560" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>599</v>
+      </c>
+      <c r="B561" t="s">
+        <v>602</v>
+      </c>
       <c r="C561" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D561" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>599</v>
+      </c>
+      <c r="B562" t="s">
+        <v>216</v>
+      </c>
       <c r="C562" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D562" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>599</v>
+      </c>
+      <c r="B563" t="s">
+        <v>603</v>
+      </c>
       <c r="C563" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D563" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>599</v>
+      </c>
+      <c r="B564" t="s">
+        <v>604</v>
+      </c>
       <c r="C564" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D564" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>599</v>
+      </c>
+      <c r="B565" t="s">
+        <v>605</v>
+      </c>
       <c r="C565" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D565" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>599</v>
+      </c>
+      <c r="B566" t="s">
+        <v>606</v>
+      </c>
       <c r="C566" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D566" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>599</v>
+      </c>
+      <c r="B567" t="s">
+        <v>607</v>
+      </c>
       <c r="C567" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D567" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>608</v>
+      </c>
+      <c r="B568" t="s">
+        <v>609</v>
+      </c>
       <c r="C568" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D568" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>608</v>
+      </c>
+      <c r="B569" t="s">
+        <v>610</v>
+      </c>
       <c r="C569" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D569" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>608</v>
+      </c>
+      <c r="B570" t="s">
+        <v>611</v>
+      </c>
       <c r="C570" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D570" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>608</v>
+      </c>
+      <c r="B571" t="s">
+        <v>612</v>
+      </c>
       <c r="C571" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D571" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>608</v>
+      </c>
+      <c r="B572" t="s">
+        <v>613</v>
+      </c>
       <c r="C572" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D572" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>608</v>
+      </c>
+      <c r="B573" t="s">
+        <v>614</v>
+      </c>
       <c r="C573" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D573" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>608</v>
+      </c>
+      <c r="B574" t="s">
+        <v>615</v>
+      </c>
       <c r="C574" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D574" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>608</v>
+      </c>
+      <c r="B575" t="s">
+        <v>616</v>
+      </c>
       <c r="C575" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D575" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>608</v>
+      </c>
+      <c r="B576" t="s">
+        <v>617</v>
+      </c>
       <c r="C576" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D576" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>608</v>
+      </c>
+      <c r="B577" t="s">
+        <v>618</v>
+      </c>
       <c r="C577" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D577" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>608</v>
+      </c>
+      <c r="B578" t="s">
+        <v>619</v>
+      </c>
       <c r="C578" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D578" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>632</v>
+      </c>
+      <c r="B579" t="s">
+        <v>620</v>
+      </c>
       <c r="C579" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D579" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>632</v>
+      </c>
+      <c r="B580" t="s">
+        <v>621</v>
+      </c>
       <c r="C580" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D580" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>632</v>
+      </c>
+      <c r="B581" t="s">
+        <v>622</v>
+      </c>
       <c r="C581" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D581" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>632</v>
+      </c>
+      <c r="B582" t="s">
+        <v>623</v>
+      </c>
       <c r="C582" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D582" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>632</v>
+      </c>
+      <c r="B583" t="s">
+        <v>624</v>
+      </c>
       <c r="C583" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D583" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>632</v>
+      </c>
+      <c r="B584" t="s">
+        <v>625</v>
+      </c>
       <c r="C584" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D584" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>632</v>
+      </c>
+      <c r="B585" t="s">
+        <v>626</v>
+      </c>
       <c r="C585" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D585" t="s">
+        <v>628</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>632</v>
+      </c>
+      <c r="B586" t="s">
+        <v>627</v>
+      </c>
       <c r="C586" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D586" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>633</v>
+      </c>
+      <c r="B587" t="s">
+        <v>634</v>
+      </c>
       <c r="C587" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D587" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>633</v>
+      </c>
+      <c r="B588" t="s">
+        <v>635</v>
+      </c>
       <c r="C588" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D588" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>633</v>
+      </c>
+      <c r="B589" t="s">
+        <v>636</v>
+      </c>
       <c r="C589" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D589" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>633</v>
+      </c>
+      <c r="B590" t="s">
+        <v>637</v>
+      </c>
       <c r="C590" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D590" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>633</v>
+      </c>
+      <c r="B591" t="s">
+        <v>638</v>
+      </c>
       <c r="C591" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D591" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>633</v>
+      </c>
+      <c r="B592" t="s">
+        <v>639</v>
+      </c>
       <c r="C592" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D592" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>633</v>
+      </c>
+      <c r="B593" t="s">
+        <v>640</v>
+      </c>
       <c r="C593" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D593" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>633</v>
+      </c>
+      <c r="B594" t="s">
+        <v>641</v>
+      </c>
       <c r="C594" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D594" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>633</v>
+      </c>
+      <c r="B595" t="s">
+        <v>642</v>
+      </c>
       <c r="C595" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D595" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>633</v>
+      </c>
+      <c r="B596" t="s">
+        <v>643</v>
+      </c>
       <c r="C596" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D596" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>644</v>
+      </c>
+      <c r="B597" t="s">
+        <v>777</v>
+      </c>
       <c r="C597" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D597" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>644</v>
+      </c>
+      <c r="B598" t="s">
+        <v>656</v>
+      </c>
       <c r="C598" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D598" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>644</v>
+      </c>
+      <c r="B599" t="s">
+        <v>778</v>
+      </c>
       <c r="C599" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D599" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>644</v>
+      </c>
+      <c r="B600" t="s">
+        <v>779</v>
+      </c>
       <c r="C600" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D600" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>644</v>
+      </c>
+      <c r="B601" t="s">
+        <v>780</v>
+      </c>
       <c r="C601" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D601" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>644</v>
+      </c>
+      <c r="B602" t="s">
+        <v>781</v>
+      </c>
       <c r="C602" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D602" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>644</v>
+      </c>
+      <c r="B603" t="s">
+        <v>782</v>
+      </c>
       <c r="C603" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D603" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>644</v>
+      </c>
+      <c r="B604" t="s">
+        <v>783</v>
+      </c>
       <c r="C604" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D604" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>644</v>
+      </c>
+      <c r="B605" t="s">
+        <v>657</v>
+      </c>
       <c r="C605" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D605" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>644</v>
+      </c>
+      <c r="B606" t="s">
+        <v>655</v>
+      </c>
       <c r="C606" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D606" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>644</v>
+      </c>
+      <c r="B607" t="s">
+        <v>658</v>
+      </c>
       <c r="C607" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D607" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>644</v>
+      </c>
+      <c r="B608" t="s">
+        <v>659</v>
+      </c>
       <c r="C608" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D608" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>644</v>
+      </c>
+      <c r="B609" t="s">
+        <v>660</v>
+      </c>
       <c r="C609" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D609" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>645</v>
+      </c>
+      <c r="B610" t="s">
+        <v>661</v>
+      </c>
       <c r="C610" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D610" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>645</v>
+      </c>
+      <c r="B611" t="s">
+        <v>662</v>
+      </c>
       <c r="C611" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D611" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>645</v>
+      </c>
+      <c r="B612" t="s">
+        <v>663</v>
+      </c>
       <c r="C612" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D612" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>645</v>
+      </c>
+      <c r="B613" t="s">
+        <v>664</v>
+      </c>
       <c r="C613" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D613" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>645</v>
+      </c>
+      <c r="B614" t="s">
+        <v>665</v>
+      </c>
       <c r="C614" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D614" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>645</v>
+      </c>
+      <c r="B615" t="s">
+        <v>666</v>
+      </c>
       <c r="C615" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D615" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>645</v>
+      </c>
+      <c r="B616" t="s">
+        <v>667</v>
+      </c>
       <c r="C616" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D616" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>645</v>
+      </c>
+      <c r="B617" t="s">
+        <v>668</v>
+      </c>
       <c r="C617" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D617" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>645</v>
+      </c>
+      <c r="B618" t="s">
+        <v>669</v>
+      </c>
       <c r="C618" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D618" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>645</v>
+      </c>
+      <c r="B619" t="s">
+        <v>670</v>
+      </c>
       <c r="C619" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D619" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>645</v>
+      </c>
+      <c r="B620" t="s">
+        <v>671</v>
+      </c>
       <c r="C620" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D620" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>645</v>
+      </c>
+      <c r="B621" t="s">
+        <v>672</v>
+      </c>
       <c r="C621" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D621" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>645</v>
+      </c>
+      <c r="B622" t="s">
+        <v>673</v>
+      </c>
       <c r="C622" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D622" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>645</v>
+      </c>
+      <c r="B623" t="s">
+        <v>674</v>
+      </c>
       <c r="C623" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D623" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>646</v>
+      </c>
+      <c r="B624" t="s">
+        <v>675</v>
+      </c>
       <c r="C624" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D624" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>646</v>
+      </c>
+      <c r="B625" t="s">
+        <v>676</v>
+      </c>
       <c r="C625" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D625" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>646</v>
+      </c>
+      <c r="B626" t="s">
+        <v>677</v>
+      </c>
       <c r="C626" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D626" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>646</v>
+      </c>
+      <c r="B627" t="s">
+        <v>678</v>
+      </c>
       <c r="C627" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D627" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>646</v>
+      </c>
+      <c r="B628" t="s">
+        <v>679</v>
+      </c>
       <c r="C628" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D628" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>646</v>
+      </c>
+      <c r="B629" t="s">
+        <v>680</v>
+      </c>
       <c r="C629" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D629" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>646</v>
+      </c>
+      <c r="B630" t="s">
+        <v>681</v>
+      </c>
       <c r="C630" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D630" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>647</v>
+      </c>
+      <c r="B631" t="s">
+        <v>682</v>
+      </c>
       <c r="C631" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D631" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>647</v>
+      </c>
+      <c r="B632" t="s">
+        <v>683</v>
+      </c>
       <c r="C632" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D632" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>647</v>
+      </c>
+      <c r="B633" t="s">
+        <v>684</v>
+      </c>
       <c r="C633" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D633" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>647</v>
+      </c>
+      <c r="B634" t="s">
+        <v>685</v>
+      </c>
       <c r="C634" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D634" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>647</v>
+      </c>
+      <c r="B635" t="s">
+        <v>686</v>
+      </c>
       <c r="C635" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D635" t="s">
+        <v>628</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>647</v>
+      </c>
+      <c r="B636" t="s">
+        <v>687</v>
+      </c>
       <c r="C636" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D636" t="s">
+        <v>628</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>647</v>
+      </c>
+      <c r="B637" t="s">
+        <v>688</v>
+      </c>
       <c r="C637" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D637" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>647</v>
+      </c>
+      <c r="B638" t="s">
+        <v>689</v>
+      </c>
       <c r="C638" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D638" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>647</v>
+      </c>
+      <c r="B639" t="s">
+        <v>690</v>
+      </c>
       <c r="C639" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D639" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>647</v>
+      </c>
+      <c r="B640" t="s">
+        <v>691</v>
+      </c>
       <c r="C640" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D640" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>647</v>
+      </c>
+      <c r="B641" t="s">
+        <v>692</v>
+      </c>
       <c r="C641" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D641" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>647</v>
+      </c>
+      <c r="B642" t="s">
+        <v>693</v>
+      </c>
       <c r="C642" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D642" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>647</v>
+      </c>
+      <c r="B643" t="s">
+        <v>694</v>
+      </c>
       <c r="C643" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D643" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>647</v>
+      </c>
+      <c r="B644" t="s">
+        <v>695</v>
+      </c>
       <c r="C644" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D644" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>647</v>
+      </c>
+      <c r="B645" t="s">
+        <v>662</v>
+      </c>
       <c r="C645" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D645" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>647</v>
+      </c>
+      <c r="B646" t="s">
+        <v>696</v>
+      </c>
       <c r="C646" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D646" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>647</v>
+      </c>
+      <c r="B647" t="s">
+        <v>697</v>
+      </c>
       <c r="C647" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D647" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>647</v>
+      </c>
+      <c r="B648" t="s">
+        <v>698</v>
+      </c>
       <c r="C648" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D648" t="s">
+        <v>628</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>647</v>
+      </c>
+      <c r="B649" t="s">
+        <v>699</v>
+      </c>
       <c r="C649" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D649" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>647</v>
+      </c>
+      <c r="B650" t="s">
+        <v>700</v>
+      </c>
       <c r="C650" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D650" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>647</v>
+      </c>
+      <c r="B651" t="s">
+        <v>701</v>
+      </c>
       <c r="C651" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D651" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>647</v>
+      </c>
+      <c r="B652" t="s">
+        <v>702</v>
+      </c>
       <c r="C652" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D652" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>647</v>
+      </c>
+      <c r="B653" t="s">
+        <v>703</v>
+      </c>
       <c r="C653" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D653" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>647</v>
+      </c>
+      <c r="B654" t="s">
+        <v>704</v>
+      </c>
       <c r="C654" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D654" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>647</v>
+      </c>
+      <c r="B655" t="s">
+        <v>705</v>
+      </c>
       <c r="C655" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D655" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>647</v>
+      </c>
+      <c r="B656" t="s">
+        <v>706</v>
+      </c>
       <c r="C656" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D656" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>647</v>
+      </c>
+      <c r="B657" t="s">
+        <v>707</v>
+      </c>
       <c r="C657" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D657" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>647</v>
+      </c>
+      <c r="B658" t="s">
+        <v>708</v>
+      </c>
       <c r="C658" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D658" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>648</v>
+      </c>
+      <c r="B659" t="s">
+        <v>709</v>
+      </c>
       <c r="C659" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D659" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>648</v>
+      </c>
+      <c r="B660" t="s">
+        <v>710</v>
+      </c>
       <c r="C660" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D660" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>649</v>
+      </c>
+      <c r="B661" t="s">
+        <v>711</v>
+      </c>
       <c r="C661" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D661" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>649</v>
+      </c>
+      <c r="B662" t="s">
+        <v>712</v>
+      </c>
       <c r="C662" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D662" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>649</v>
+      </c>
+      <c r="B663" t="s">
+        <v>713</v>
+      </c>
       <c r="C663" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D663" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>649</v>
+      </c>
+      <c r="B664" t="s">
+        <v>714</v>
+      </c>
       <c r="C664" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D664" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>649</v>
+      </c>
+      <c r="B665" t="s">
+        <v>715</v>
+      </c>
       <c r="C665" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D665" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>649</v>
+      </c>
+      <c r="B666" t="s">
+        <v>716</v>
+      </c>
       <c r="C666" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D666" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>649</v>
+      </c>
+      <c r="B667" t="s">
+        <v>717</v>
+      </c>
       <c r="C667" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D667" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>649</v>
+      </c>
+      <c r="B668" t="s">
+        <v>718</v>
+      </c>
       <c r="C668" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D668" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>649</v>
+      </c>
+      <c r="B669" t="s">
+        <v>719</v>
+      </c>
       <c r="C669" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D669" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>649</v>
+      </c>
+      <c r="B670" t="s">
+        <v>720</v>
+      </c>
       <c r="C670" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D670" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>650</v>
+      </c>
+      <c r="B671" t="s">
+        <v>721</v>
+      </c>
       <c r="C671" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D671" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>650</v>
+      </c>
+      <c r="B672" t="s">
+        <v>722</v>
+      </c>
       <c r="C672" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D672" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>650</v>
+      </c>
+      <c r="B673" t="s">
+        <v>723</v>
+      </c>
       <c r="C673" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D673" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>650</v>
+      </c>
+      <c r="B674" t="s">
+        <v>724</v>
+      </c>
       <c r="C674" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D674" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>650</v>
+      </c>
+      <c r="B675" t="s">
+        <v>725</v>
+      </c>
       <c r="C675" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D675" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>650</v>
+      </c>
+      <c r="B676" t="s">
+        <v>726</v>
+      </c>
       <c r="C676" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D676" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>650</v>
+      </c>
+      <c r="B677" t="s">
+        <v>727</v>
+      </c>
       <c r="C677" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D677" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>650</v>
+      </c>
+      <c r="B678" t="s">
+        <v>728</v>
+      </c>
       <c r="C678" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="679" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D678" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>650</v>
+      </c>
+      <c r="B679" t="s">
+        <v>729</v>
+      </c>
       <c r="C679" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="680" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D679" t="s">
+        <v>628</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>650</v>
+      </c>
+      <c r="B680" t="s">
+        <v>730</v>
+      </c>
       <c r="C680" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D680" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>650</v>
+      </c>
+      <c r="B681" t="s">
+        <v>731</v>
+      </c>
       <c r="C681" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="682" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D681" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>650</v>
+      </c>
+      <c r="B682" t="s">
+        <v>732</v>
+      </c>
       <c r="C682" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D682" t="s">
+        <v>628</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>650</v>
+      </c>
+      <c r="B683" t="s">
+        <v>733</v>
+      </c>
       <c r="C683" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="684" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D683" t="s">
+        <v>628</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>651</v>
+      </c>
+      <c r="B684" t="s">
+        <v>734</v>
+      </c>
       <c r="C684" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="685" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D684" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>651</v>
+      </c>
+      <c r="B685" t="s">
+        <v>735</v>
+      </c>
       <c r="C685" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="686" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D685" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>651</v>
+      </c>
+      <c r="B686" t="s">
+        <v>736</v>
+      </c>
       <c r="C686" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D686" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>651</v>
+      </c>
+      <c r="B687" t="s">
+        <v>737</v>
+      </c>
       <c r="C687" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="688" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D687" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>5</v>
+      </c>
+      <c r="B688" t="s">
+        <v>738</v>
+      </c>
       <c r="C688" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D688" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>652</v>
+      </c>
+      <c r="B689" t="s">
+        <v>739</v>
+      </c>
       <c r="C689" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D689" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>652</v>
+      </c>
+      <c r="B690" t="s">
+        <v>740</v>
+      </c>
       <c r="C690" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="691" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D690" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>652</v>
+      </c>
+      <c r="B691" t="s">
+        <v>741</v>
+      </c>
       <c r="C691" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D691" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>652</v>
+      </c>
+      <c r="B692" t="s">
+        <v>742</v>
+      </c>
       <c r="C692" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D692" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>652</v>
+      </c>
+      <c r="B693" t="s">
+        <v>743</v>
+      </c>
       <c r="C693" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D693" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>652</v>
+      </c>
+      <c r="B694" t="s">
+        <v>744</v>
+      </c>
       <c r="C694" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="695" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D694" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>652</v>
+      </c>
+      <c r="B695" t="s">
+        <v>745</v>
+      </c>
       <c r="C695" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D695" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>652</v>
+      </c>
+      <c r="B696" t="s">
+        <v>746</v>
+      </c>
       <c r="C696" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="697" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D696" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>652</v>
+      </c>
+      <c r="B697" t="s">
+        <v>747</v>
+      </c>
       <c r="C697" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D697" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>652</v>
+      </c>
+      <c r="B698" t="s">
+        <v>748</v>
+      </c>
       <c r="C698" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D698" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>652</v>
+      </c>
+      <c r="B699" t="s">
+        <v>749</v>
+      </c>
       <c r="C699" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D699" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>652</v>
+      </c>
+      <c r="B700" t="s">
+        <v>750</v>
+      </c>
       <c r="C700" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D700" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>652</v>
+      </c>
+      <c r="B701" t="s">
+        <v>751</v>
+      </c>
       <c r="C701" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D701" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>652</v>
+      </c>
+      <c r="B702" t="s">
+        <v>752</v>
+      </c>
       <c r="C702" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D702" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>652</v>
+      </c>
+      <c r="B703" t="s">
+        <v>753</v>
+      </c>
       <c r="C703" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D703" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>652</v>
+      </c>
+      <c r="B704" t="s">
+        <v>754</v>
+      </c>
       <c r="C704" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D704" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>652</v>
+      </c>
+      <c r="B705" t="s">
+        <v>755</v>
+      </c>
       <c r="C705" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="706" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D705" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>652</v>
+      </c>
+      <c r="B706" t="s">
+        <v>756</v>
+      </c>
       <c r="C706" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D706" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>652</v>
+      </c>
+      <c r="B707" t="s">
+        <v>757</v>
+      </c>
       <c r="C707" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="708" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D707" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>652</v>
+      </c>
+      <c r="B708" t="s">
+        <v>758</v>
+      </c>
       <c r="C708" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D708" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>652</v>
+      </c>
+      <c r="B709" t="s">
+        <v>759</v>
+      </c>
       <c r="C709" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="710" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D709" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>653</v>
+      </c>
+      <c r="B710" t="s">
+        <v>760</v>
+      </c>
       <c r="C710" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D710" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>653</v>
+      </c>
+      <c r="B711" t="s">
+        <v>761</v>
+      </c>
       <c r="C711" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="712" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D711" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>653</v>
+      </c>
+      <c r="B712" t="s">
+        <v>762</v>
+      </c>
       <c r="C712" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D712" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>653</v>
+      </c>
+      <c r="B713" t="s">
+        <v>763</v>
+      </c>
       <c r="C713" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="714" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D713" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>653</v>
+      </c>
+      <c r="B714" t="s">
+        <v>764</v>
+      </c>
       <c r="C714" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D714" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>653</v>
+      </c>
+      <c r="B715" t="s">
+        <v>765</v>
+      </c>
       <c r="C715" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="716" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D715" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>654</v>
+      </c>
+      <c r="B716" t="s">
+        <v>766</v>
+      </c>
       <c r="C716" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="717" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D716" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>654</v>
+      </c>
+      <c r="B717" t="s">
+        <v>767</v>
+      </c>
       <c r="C717" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="718" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D717" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>654</v>
+      </c>
+      <c r="B718" t="s">
+        <v>768</v>
+      </c>
       <c r="C718" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="719" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D718" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>654</v>
+      </c>
+      <c r="B719" t="s">
+        <v>769</v>
+      </c>
       <c r="C719" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="720" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D719" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>654</v>
+      </c>
+      <c r="B720" t="s">
+        <v>770</v>
+      </c>
       <c r="C720" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D720" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>654</v>
+      </c>
+      <c r="B721" t="s">
+        <v>771</v>
+      </c>
       <c r="C721" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D721" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>654</v>
+      </c>
+      <c r="B722" t="s">
+        <v>772</v>
+      </c>
       <c r="C722" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D722" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>654</v>
+      </c>
+      <c r="B723" t="s">
+        <v>773</v>
+      </c>
       <c r="C723" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D723" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>654</v>
+      </c>
+      <c r="B724" t="s">
+        <v>774</v>
+      </c>
       <c r="C724" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D724" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>654</v>
+      </c>
+      <c r="B725" t="s">
+        <v>775</v>
+      </c>
       <c r="C725" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D725" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>654</v>
+      </c>
+      <c r="B726" t="s">
+        <v>776</v>
+      </c>
       <c r="C726" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C727" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C728" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C729" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C730" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C731" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C732" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C733" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C734" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C735" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C736" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="737" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C737" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C738" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="739" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C739" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="740" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C740" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="741" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C741" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="742" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C742" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="743" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C743" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C744" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="745" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C745" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="746" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C746" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C747" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="748" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C748" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="749" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C749" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="750" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C750" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="751" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C751" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="752" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C752" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="753" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C753" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="754" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C754" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="755" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C755" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="756" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C756" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C757" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="758" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C758" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="759" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C759" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C760" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C761" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="762" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C762" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="763" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C763" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="764" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C764" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="765" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C765" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C766" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="767" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C767" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C768" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="769" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C769" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="770" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C770" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="771" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C771" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C772" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="773" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C773" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="774" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C774" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="775" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C775" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="776" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C776" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="777" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C777" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="778" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C778" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="779" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C779" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C780" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C781" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="782" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C782" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="783" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C783" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="784" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C784" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="785" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C785" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C786" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="787" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C787" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="788" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C788" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="789" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C789" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="790" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C790" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="791" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C791" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="792" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C792" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="793" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C793" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="794" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C794" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="795" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C795" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="796" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C796" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="797" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C797" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="798" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C798" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="799" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C799" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="800" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C800" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="801" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C801" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="802" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C802" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="803" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C803" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="804" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C804" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="805" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C805" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C806" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="807" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C807" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="808" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C808" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="809" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C809" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="810" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C810" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="811" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C811" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="812" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C812" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="813" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C813" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="814" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C814" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="815" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C815" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="816" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C816" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="817" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C817" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="818" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C818" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="819" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C819" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="820" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C820" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="821" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C821" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="822" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C822" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="823" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C823" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="824" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C824" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="825" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C825" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="826" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C826" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="827" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C827" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="828" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C828" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="829" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C829" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="830" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C830" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="831" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C831" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="832" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C832" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="833" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C833" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="834" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C834" t="s">
-        <v>389</v>
+      <c r="D726" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
